--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET_AL.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET_AL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EmpSchul\Organisation_Verwaltung_Formulare\Hiwi_Organisation\Anna Lugovaya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FDA1C2-CA05-4CC0-A192-A5506E312139}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9C07F5-2AE2-42C4-8C50-B83FA9E935C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" activeTab="2" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="2" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
@@ -1319,30 +1319,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.5703125" style="30"/>
-    <col min="15" max="15" width="14.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.5546875" style="30"/>
+    <col min="15" max="15" width="14.5546875" style="30" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5703125" style="30"/>
+    <col min="17" max="16384" width="11.5546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>49</v>
       </c>
@@ -1356,13 +1356,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>15</v>
       </c>
@@ -1376,13 +1376,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>123</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>60</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>61</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>62</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>63</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>58</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="118.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>59</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>69</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>29</v>
       </c>
@@ -1577,13 +1577,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>47</v>
       </c>
@@ -1597,13 +1597,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>43</v>
       </c>
@@ -1617,13 +1617,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>2</v>
       </c>
@@ -1637,13 +1637,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>120</v>
       </c>
@@ -1657,13 +1657,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>113</v>
       </c>
@@ -1677,13 +1677,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>4</v>
       </c>
@@ -1697,13 +1697,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="139.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>114</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="51" t="s">
         <v>121</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53" t="s">
         <v>186</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="53" t="s">
         <v>132</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53" t="s">
         <v>140</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
         <v>138</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="53" t="s">
         <v>141</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
         <v>152</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="51" t="s">
         <v>122</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
         <v>182</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
     </row>
-    <row r="42" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="54" t="s">
         <v>183</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="D42" s="56"/>
     </row>
-    <row r="43" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="54" t="s">
         <v>184</v>
       </c>
@@ -1859,13 +1859,13 @@
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
     </row>
-    <row r="45" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>44</v>
       </c>
@@ -1879,13 +1879,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
     </row>
-    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>45</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>67</v>
       </c>
@@ -1910,17 +1910,17 @@
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>115</v>
       </c>
       <c r="B53" s="42"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
     </row>
-    <row r="55" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
         <v>98</v>
       </c>
@@ -1928,22 +1928,22 @@
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="36" t="s">
         <v>97</v>
       </c>
@@ -1963,33 +1963,33 @@
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5703125" style="1"/>
+    <col min="20" max="20" width="21.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>36</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>36</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
     </row>
-    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>37</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>36</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>30</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>37</v>
       </c>
@@ -5671,7 +5671,7 @@
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>34</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>34</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>34</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>34</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>39</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>39</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>39</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>39</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>36</v>
       </c>
@@ -6861,12 +6861,12 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
     </row>
-    <row r="83" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6877,33 +6877,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF1EB2F-341F-4B62-8B6D-176AFC8A6257}">
   <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="16" style="65" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="20.28515625" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" customWidth="1"/>
+    <col min="27" max="27" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>9.4907407407407408E-4</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F10" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F12" si="0">E2-D2</f>
         <v>8.101851851851857E-5</v>
       </c>
       <c r="G2" s="2">
@@ -7055,7 +7055,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>6.1342592592592594E-3</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f>E9-D9</f>
         <v>4.0509259259259231E-4</v>
       </c>
       <c r="G9" s="2">
@@ -7570,7 +7570,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>36</v>
       </c>
@@ -7687,13 +7687,13 @@
       </c>
       <c r="X11" s="20">
         <f>SUM(X12:X20)</f>
-        <v>1.5046296296296325E-4</v>
+        <v>3.5879629629629619E-4</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -7709,9 +7709,9 @@
       <c r="E12" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="5" t="e">
-        <f t="shared" ref="F12:F20" si="4">E12-D12</f>
-        <v>#VALUE!</v>
+      <c r="F12" s="5">
+        <f>F14</f>
+        <v>2.8935185185185184E-4</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7774,7 +7774,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1.6550925925925926E-3</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F12:F20" si="4">E13-D13</f>
         <v>9.2592592592592683E-5</v>
       </c>
       <c r="G13" s="2">
@@ -7845,7 +7845,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -7905,8 +7905,8 @@
         <v>6.9444444444444458E-5</v>
       </c>
       <c r="X14" s="3">
-        <f>H14-U14</f>
-        <v>-1.0416666666666647E-4</v>
+        <f>U14-H14</f>
+        <v>1.0416666666666647E-4</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -7914,7 +7914,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>3.7152777777777774E-3</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="4"/>
+        <f>E16-D16</f>
         <v>1.2731481481481448E-4</v>
       </c>
       <c r="G16" s="2">
@@ -8057,7 +8057,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>4.363425925925926E-3</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="4"/>
+        <f>E17-D17</f>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="G17" s="2">
@@ -8138,7 +8138,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>36</v>
       </c>
@@ -8380,9 +8380,9 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="21" t="e">
+      <c r="F21" s="21">
         <f>SUM(F12:F20)</f>
-        <v>#VALUE!</v>
+        <v>1.9328703703703702E-3</v>
       </c>
       <c r="G21" s="19">
         <f>SUM(G12:G20)</f>
@@ -8415,13 +8415,13 @@
       </c>
       <c r="X21" s="20">
         <f>SUM(X12:X20)</f>
-        <v>1.5046296296296325E-4</v>
+        <v>3.5879629629629619E-4</v>
       </c>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>36</v>
       </c>
@@ -9058,7 +9058,7 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>37</v>
       </c>
@@ -9695,7 +9695,7 @@
       <c r="Z41" s="19"/>
       <c r="AA41" s="19"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>28</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>28</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>36</v>
       </c>
@@ -10332,7 +10332,7 @@
       <c r="Z51" s="19"/>
       <c r="AA51" s="19"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>30</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>37</v>
       </c>
@@ -10963,7 +10963,7 @@
       <c r="Z61" s="19"/>
       <c r="AA61" s="19"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>34</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>34</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>34</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>34</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>36</v>
       </c>
@@ -11597,7 +11597,7 @@
       <c r="Z71" s="19"/>
       <c r="AA71" s="19"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>39</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>39</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>39</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>39</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>39</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>39</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>36</v>
       </c>
@@ -12229,7 +12229,7 @@
       <c r="Z81" s="19"/>
       <c r="AA81" s="19"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -12258,7 +12258,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>38</v>
       </c>
@@ -12289,7 +12289,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -12318,7 +12318,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -12347,7 +12347,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -12376,7 +12376,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -12405,7 +12405,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -12434,7 +12434,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -12463,7 +12463,7 @@
       <c r="Z89" s="15"/>
       <c r="AA89" s="15"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -12492,7 +12492,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -12521,7 +12521,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -12550,7 +12550,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -12579,7 +12579,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -12608,7 +12608,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -12637,7 +12637,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -12666,7 +12666,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -12695,7 +12695,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -12724,7 +12724,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -12753,7 +12753,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -12782,7 +12782,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -12811,7 +12811,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -12840,7 +12840,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -12882,51 +12882,51 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
       <c r="B5" s="36"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>167</v>
       </c>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>75</v>
       </c>

--- a/studies/2020_Aperol_Git/Coding/manual_coding_b_ET_AL.xlsx
+++ b/studies/2020_Aperol_Git/Coding/manual_coding_b_ET_AL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\2020_Aperol_Git\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mandy_Pilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9C07F5-2AE2-42C4-8C50-B83FA9E935C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59054B22-BF77-4C22-B970-F6C3B309B2FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" activeTab="2" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8780" activeTab="2" xr2:uid="{D9BE113E-CD22-4B9F-8AEA-F1B95AFAE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="coding scheme" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="191">
   <si>
     <t>onset</t>
   </si>
@@ -99,16 +99,7 @@
     <t>Aperol_pilot_01_03_novice_B</t>
   </si>
   <si>
-    <t>nonverbal: gaze and gesture</t>
-  </si>
-  <si>
-    <t>nonverbal: moving towards disturbing person, involving person</t>
-  </si>
-  <si>
     <t>Aperol_pilot_01_04_novice_C</t>
-  </si>
-  <si>
-    <t>nonverbal: moving towards disturbing person</t>
   </si>
   <si>
     <t>verbal: commentating the noise</t>
@@ -477,21 +468,9 @@
     <t>person A puts her/his head on the table. The teacher move towards person A and addresses a question directly to person A. "What do you think, x, is this a good idea?"</t>
   </si>
   <si>
-    <t>103; 104</t>
-  </si>
-  <si>
-    <t>nonverbal: gesture; 104</t>
-  </si>
-  <si>
-    <t>nonvberal: moving towards disturbing person, 104</t>
-  </si>
-  <si>
     <t>nonverbal: moving towards disturbing person; 103</t>
   </si>
   <si>
-    <t>nonverbal: moving towards disturbing person; 104</t>
-  </si>
-  <si>
     <t>the teacher allows an action/ answeres a question.</t>
   </si>
   <si>
@@ -510,9 +489,6 @@
     <t>person A is drumming with the hands on the table. The teacher notices the noise and asks person A to stop the drumming.</t>
   </si>
   <si>
-    <t>105; 102</t>
-  </si>
-  <si>
     <t>nonverbal: moving towards disturbing person; 105</t>
   </si>
   <si>
@@ -570,24 +546,9 @@
     <t>reaction04 offset</t>
   </si>
   <si>
-    <t>102, zubewegen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 00:05:50</t>
   </si>
   <si>
-    <t>104,103, 105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103, gestik </t>
-  </si>
-  <si>
-    <t xml:space="preserve">103, 105 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">103, 102 </t>
-  </si>
-  <si>
     <t>reaction02 onset</t>
   </si>
   <si>
@@ -612,9 +573,6 @@
     <t>100</t>
   </si>
   <si>
-    <t xml:space="preserve"> 00:01:37</t>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
@@ -628,6 +586,36 @@
   </si>
   <si>
     <t>00:09.24</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>reaction04 onset</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 </t>
+  </si>
+  <si>
+    <t>00:09.21</t>
+  </si>
+  <si>
+    <t>n. a.</t>
+  </si>
+  <si>
+    <t>00:09.05</t>
+  </si>
+  <si>
+    <t>00:03.19</t>
+  </si>
+  <si>
+    <t>Wird abgebrochen &amp; sartet später erneut… durchgängige Störung?</t>
   </si>
 </sst>
 </file>
@@ -1319,153 +1307,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A75A8A-F741-4C3F-9138-10D56EF9D568}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="40.26953125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.54296875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="50.1796875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="30" customWidth="1"/>
     <col min="8" max="8" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.5546875" style="30"/>
-    <col min="15" max="15" width="14.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.54296875" style="30"/>
+    <col min="15" max="15" width="14.54296875" style="30" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="30"/>
+    <col min="17" max="16384" width="11.54296875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="45">
         <v>10</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="45">
         <v>11</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="45">
         <v>12</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1473,13 +1461,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="118.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
@@ -1487,13 +1475,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="117.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
@@ -1501,27 +1489,27 @@
         <v>22</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
@@ -1529,13 +1517,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>17</v>
       </c>
@@ -1543,293 +1531,293 @@
         <v>31</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="46">
         <v>32</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="46">
         <v>33</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="78.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:4" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="139.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B34" s="46">
         <v>100</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B35" s="46">
         <v>101</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B36" s="46">
         <v>102</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B37" s="46">
         <v>103</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B38" s="46">
         <v>104</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="53" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B39" s="46">
         <v>105</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B40" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="54" t="s">
         <v>169</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
-        <v>182</v>
       </c>
       <c r="B41" s="55">
         <v>200</v>
@@ -1837,21 +1825,21 @@
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
     </row>
-    <row r="42" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="54" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B42" s="55">
         <v>201</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D42" s="56"/>
     </row>
-    <row r="43" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="54" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B43" s="55">
         <v>202</v>
@@ -1859,49 +1847,49 @@
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
     </row>
-    <row r="45" spans="1:4" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
     </row>
-    <row r="47" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -1910,42 +1898,42 @@
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B53" s="42"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
     </row>
-    <row r="55" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="36" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="36" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1958,46 +1946,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DD2F59-5577-4BF1-9B09-7232E83E7D11}">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5546875" style="1"/>
+    <col min="20" max="20" width="21.26953125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.26953125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2012,37 +2000,37 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>16</v>
@@ -2623,7 +2611,7 @@
     </row>
     <row r="11" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="18">
         <f>SUM(B2:B10)</f>
@@ -3217,7 +3205,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" s="19">
         <f>SUM(B12:B20)</f>
@@ -3826,7 +3814,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" s="19">
         <f>SUM(B22:B30)</f>
@@ -3874,7 +3862,7 @@
     </row>
     <row r="32" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -3935,7 +3923,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -3996,7 +3984,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -4059,7 +4047,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -4120,7 +4108,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -4181,7 +4169,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -4213,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4242,7 +4230,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -4303,7 +4291,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -4366,7 +4354,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -4429,7 +4417,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" s="19">
         <f>SUM(B32:B40)</f>
@@ -4477,7 +4465,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -4538,7 +4526,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -4601,7 +4589,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -4662,7 +4650,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -4723,7 +4711,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -4786,7 +4774,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -4847,7 +4835,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -4908,7 +4896,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -4969,7 +4957,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -5030,7 +5018,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B51" s="19">
         <f>SUM(B42:B50)</f>
@@ -5078,7 +5066,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -5139,7 +5127,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -5197,7 +5185,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -5258,7 +5246,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -5319,7 +5307,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -5380,7 +5368,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -5443,7 +5431,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -5506,7 +5494,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -5567,7 +5555,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -5628,7 +5616,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" s="19">
         <f>SUM(B52:B60)</f>
@@ -5673,7 +5661,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -5734,7 +5722,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -5797,7 +5785,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -5860,7 +5848,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -5921,7 +5909,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -5982,7 +5970,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -6043,7 +6031,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -6104,7 +6092,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
@@ -6165,7 +6153,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -6226,7 +6214,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B71" s="19">
         <f>SUM(B62:B70)</f>
@@ -6271,7 +6259,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -6332,7 +6320,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -6393,7 +6381,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -6452,7 +6440,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -6513,7 +6501,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -6574,7 +6562,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -6635,7 +6623,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -6696,7 +6684,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -6757,7 +6745,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -6789,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -6818,7 +6806,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B81" s="19">
         <f>SUM(B72:B80)</f>
@@ -6861,9 +6849,9 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
     </row>
-    <row r="83" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -6875,43 +6863,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF1EB2F-341F-4B62-8B6D-176AFC8A6257}">
-  <dimension ref="A1:AA103"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="16" style="65" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" customWidth="1"/>
-    <col min="22" max="22" width="18.109375" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" customWidth="1"/>
-    <col min="27" max="27" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" customWidth="1"/>
+    <col min="19" max="19" width="14.54296875" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.26953125" customWidth="1"/>
+    <col min="24" max="24" width="18.1796875" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="20.26953125" customWidth="1"/>
+    <col min="27" max="27" width="16.7265625" customWidth="1"/>
+    <col min="29" max="29" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -6926,67 +6917,73 @@
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="W1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -7003,7 +7000,7 @@
         <v>9.4907407407407408E-4</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F12" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F10" si="0">E2-D2</f>
         <v>8.101851851851857E-5</v>
       </c>
       <c r="G2" s="2">
@@ -7035,27 +7032,29 @@
       <c r="R2" s="57"/>
       <c r="S2" s="57"/>
       <c r="T2" s="57"/>
-      <c r="U2" s="3">
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="3">
         <v>9.1435185185185185E-4</v>
       </c>
-      <c r="V2" s="3">
+      <c r="X2" s="3">
         <v>9.7222222222222209E-4</v>
       </c>
-      <c r="W2" s="3">
-        <f t="shared" ref="W2:W10" si="1" xml:space="preserve"> V2-U2</f>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Y10" si="1" xml:space="preserve"> X2-W2</f>
         <v>5.7870370370370237E-5</v>
       </c>
-      <c r="X2" s="3">
-        <f t="shared" ref="X2:X10" si="2">U2-H2</f>
+      <c r="Z2" s="3">
+        <f t="shared" ref="Z2:Z10" si="2">W2-H2</f>
         <v>2.3148148148148225E-5</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="3">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>1.712962962962963E-3</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="N3" s="58">
         <v>104</v>
@@ -7110,27 +7109,29 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="3">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="3">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="V3" s="3">
+      <c r="X3" s="3">
         <v>2.0138888888888888E-3</v>
       </c>
-      <c r="W3" s="3">
+      <c r="Y3" s="3">
         <f t="shared" si="1"/>
         <v>3.0092592592592584E-4</v>
       </c>
-      <c r="X3" s="3">
+      <c r="Z3" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="3">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -7185,27 +7186,29 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="12">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="12">
         <v>2.8587962962962963E-3</v>
       </c>
-      <c r="V4" s="12">
+      <c r="X4" s="12">
         <v>2.9282407407407412E-3</v>
       </c>
-      <c r="W4" s="12">
+      <c r="Y4" s="12">
         <f t="shared" si="1"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="X4" s="12">
+      <c r="Z4" s="12">
         <f t="shared" si="2"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="12">
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="12">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -7238,8 +7241,8 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>144</v>
+      <c r="K5" s="2">
+        <v>103</v>
       </c>
       <c r="L5" s="5">
         <v>4.0972222222222226E-3</v>
@@ -7257,32 +7260,34 @@
         <v>4.2245370370370371E-3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="3">
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="3">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="V5" s="3">
+      <c r="X5" s="3">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="W5" s="3">
+      <c r="Y5" s="3">
         <f t="shared" si="1"/>
         <v>1.1574074074074004E-4</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Z5" s="3">
         <f t="shared" si="2"/>
         <v>7.8703703703703791E-4</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="3">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -7315,43 +7320,51 @@
       <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="52" t="s">
-        <v>175</v>
+      <c r="K6" s="52">
+        <v>202</v>
       </c>
       <c r="L6" s="57">
-        <v>4.0393518518518521E-3</v>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="M6" s="57">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
+      <c r="N6" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="57">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="P6" s="57">
+        <v>4.0509259259259257E-3</v>
+      </c>
       <c r="Q6" s="57"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="3">
-        <v>4.0393518518518521E-3</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="W6" s="3" t="e">
-        <f xml:space="preserve"> V6-U6</f>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="3">
+        <v>4.0162037037037033E-3</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y6" s="3" t="e">
+        <f xml:space="preserve"> X6-W6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X6" s="3">
+      <c r="Z6" s="3">
         <f t="shared" si="2"/>
-        <v>1.1574074074074438E-5</v>
-      </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="3">
+        <v>-1.1574074074074438E-5</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -7384,8 +7397,8 @@
       <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>177</v>
+      <c r="K7" s="2">
+        <v>104</v>
       </c>
       <c r="L7" s="5">
         <v>4.5254629629629629E-3</v>
@@ -7393,42 +7406,48 @@
       <c r="M7" s="5">
         <v>4.5370370370370365E-3</v>
       </c>
-      <c r="N7" s="58"/>
+      <c r="N7" s="58" t="s">
+        <v>176</v>
+      </c>
       <c r="O7" s="5">
         <v>4.5254629629629629E-3</v>
       </c>
       <c r="P7" s="5">
         <v>4.5370370370370365E-3</v>
       </c>
-      <c r="Q7" s="5">
-        <v>4.5486111111111109E-3</v>
+      <c r="Q7" s="66">
+        <v>105</v>
       </c>
       <c r="R7" s="5">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="5">
+        <v>4.5717592592592589E-3</v>
+      </c>
       <c r="T7" s="5"/>
-      <c r="U7" s="3">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="3">
         <v>4.5254629629629629E-3</v>
       </c>
-      <c r="V7" s="3">
+      <c r="X7" s="3">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="W7" s="3">
+      <c r="Y7" s="3">
         <f t="shared" si="1"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Z7" s="3">
         <f t="shared" si="2"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="3">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -7461,8 +7480,8 @@
       <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>178</v>
+      <c r="K8" s="2">
+        <v>103</v>
       </c>
       <c r="L8" s="5">
         <v>5.2430555555555555E-3</v>
@@ -7473,31 +7492,33 @@
       <c r="N8" s="58"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="66"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="3">
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="3">
         <v>5.2430555555555555E-3</v>
       </c>
-      <c r="V8" s="5">
+      <c r="X8" s="5">
         <v>5.3009259259259251E-3</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <f t="shared" si="1"/>
         <v>5.7870370370369587E-5</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <f t="shared" si="2"/>
         <v>1.9675925925925937E-4</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="3">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -7514,7 +7535,7 @@
         <v>6.1342592592592594E-3</v>
       </c>
       <c r="F9" s="5">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>4.0509259259259231E-4</v>
       </c>
       <c r="G9" s="2">
@@ -7530,8 +7551,8 @@
       <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>179</v>
+      <c r="K9" s="2">
+        <v>103</v>
       </c>
       <c r="L9" s="5">
         <v>6.0995370370370361E-3</v>
@@ -7539,7 +7560,9 @@
       <c r="M9" s="5">
         <v>6.0995370370370361E-3</v>
       </c>
-      <c r="N9" s="58"/>
+      <c r="N9" s="58" t="s">
+        <v>184</v>
+      </c>
       <c r="O9" s="5">
         <v>6.1111111111111114E-3</v>
       </c>
@@ -7550,27 +7573,29 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="3">
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="3">
         <v>6.0995370370370361E-3</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <f t="shared" si="1"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <f t="shared" si="2"/>
         <v>3.70370370370369E-4</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="3">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -7603,8 +7628,8 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>180</v>
+      <c r="K10" s="2">
+        <v>103</v>
       </c>
       <c r="L10" s="5">
         <v>6.7708333333333336E-3</v>
@@ -7612,36 +7637,44 @@
       <c r="M10" s="5">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="N10" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="5">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="P10" s="5">
+        <v>6.7708333333333336E-3</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="3">
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="3">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6.7708333333333336E-3</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="3">
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="3">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="18">
         <f>SUM(B2:B10)</f>
@@ -7650,7 +7683,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F11" s="21">
         <f>SUM(F2:F10)</f>
@@ -7681,19 +7714,21 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="20">
-        <f>SUM(W12:W20)</f>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="20">
+        <f>SUM(Y12:Y20)</f>
         <v>5.6712962962962837E-4</v>
       </c>
-      <c r="X11" s="20">
-        <f>SUM(X12:X20)</f>
-        <v>3.5879629629629619E-4</v>
-      </c>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
+      <c r="Z11" s="20">
+        <f>SUM(Z12:Z20)</f>
+        <v>1.5046296296296325E-4</v>
+      </c>
       <c r="AA11" s="19"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -7706,12 +7741,12 @@
       <c r="D12" s="5">
         <v>8.7962962962962962E-4</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>189</v>
+      <c r="E12" s="5">
+        <v>1.1226851851851851E-3</v>
       </c>
       <c r="F12" s="5">
-        <f>F14</f>
-        <v>2.8935185185185184E-4</v>
+        <f xml:space="preserve"> E12-D12</f>
+        <v>2.4305555555555549E-4</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -7736,7 +7771,7 @@
         <v>1.0300925925925926E-3</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O12" s="3">
         <v>1.0300925925925926E-3</v>
@@ -7753,28 +7788,30 @@
       <c r="S12" s="3">
         <v>1.0995370370370371E-3</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="3">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1.0995370370370371E-3</v>
       </c>
-      <c r="W12" s="3">
-        <f xml:space="preserve"> V12-U12</f>
+      <c r="Y12" s="3">
+        <f xml:space="preserve"> X12-W12</f>
         <v>6.9444444444444458E-5</v>
       </c>
-      <c r="X12" s="3">
-        <f>U12-H12</f>
+      <c r="Z12" s="3">
+        <f>W12-H12</f>
         <v>1.273148148148148E-4</v>
       </c>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="3">
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -7791,7 +7828,7 @@
         <v>1.6550925925925926E-3</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ref="F12:F20" si="4">E13-D13</f>
+        <f xml:space="preserve"> E13-D13</f>
         <v>9.2592592592592683E-5</v>
       </c>
       <c r="G13" s="2">
@@ -7801,7 +7838,7 @@
         <v>1.5624999999999999E-3</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:I20" si="5">H13-D13</f>
+        <f t="shared" ref="I13:I20" si="4">H13-D13</f>
         <v>0</v>
       </c>
       <c r="J13" s="2">
@@ -7819,33 +7856,35 @@
       <c r="N13" s="58"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="3">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3">
         <v>1.5856481481481479E-3</v>
       </c>
-      <c r="V13" s="3">
+      <c r="X13" s="3">
         <v>1.6435185185185183E-3</v>
       </c>
-      <c r="W13" s="3">
-        <f xml:space="preserve"> V13-U13</f>
+      <c r="Y13" s="3">
+        <f xml:space="preserve"> X13-W13</f>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="X13" s="3">
-        <f>U13-H13</f>
+      <c r="Z13" s="3">
+        <f>W13-H13</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="3">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -7862,7 +7901,7 @@
         <v>2.627314814814815E-3</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F14:F20" si="5">E14-D14</f>
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="G14" s="2">
@@ -7872,7 +7911,7 @@
         <v>2.3379629629629631E-3</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J14" s="2">
@@ -7894,27 +7933,29 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="3">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3">
         <v>2.4421296296296296E-3</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>2.5115740740740741E-3</v>
       </c>
-      <c r="W14" s="3">
-        <f xml:space="preserve"> V14-U14</f>
+      <c r="Y14" s="3">
+        <f xml:space="preserve"> X14-W14</f>
         <v>6.9444444444444458E-5</v>
       </c>
-      <c r="X14" s="3">
-        <f>U14-H14</f>
-        <v>1.0416666666666647E-4</v>
-      </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="3">
+      <c r="Z14" s="3">
+        <f>H14-W14</f>
+        <v>-1.0416666666666647E-4</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -7931,7 +7972,7 @@
         <v>3.7615740740740739E-3</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="4"/>
+        <f>E15-D15</f>
         <v>6.0185185185185168E-4</v>
       </c>
       <c r="G15" s="2">
@@ -7958,25 +7999,27 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2" t="s">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="3">
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -7993,7 +8036,7 @@
         <v>3.7152777777777774E-3</v>
       </c>
       <c r="F16" s="5">
-        <f>E16-D16</f>
+        <f t="shared" si="5"/>
         <v>1.2731481481481448E-4</v>
       </c>
       <c r="G16" s="2">
@@ -8003,7 +8046,7 @@
         <v>3.6111111111111114E-3</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.3148148148148442E-5</v>
       </c>
       <c r="J16" s="2">
@@ -8019,7 +8062,7 @@
         <v>3.6342592592592594E-3</v>
       </c>
       <c r="N16" s="58" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O16" s="3">
         <v>3.6342592592592594E-3</v>
@@ -8036,28 +8079,30 @@
       <c r="S16" s="3">
         <v>3.7152777777777774E-3</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="3">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3">
         <v>3.6226851851851854E-3</v>
       </c>
-      <c r="V16" s="3">
+      <c r="X16" s="3">
         <v>3.7152777777777774E-3</v>
       </c>
-      <c r="W16" s="3">
-        <f xml:space="preserve"> V16-U16</f>
+      <c r="Y16" s="3">
+        <f xml:space="preserve"> X16-W16</f>
         <v>9.2592592592592032E-5</v>
       </c>
-      <c r="X16" s="3">
-        <f>U16-H16</f>
+      <c r="Z16" s="3">
+        <f>W16-H16</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="3">
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -8074,7 +8119,7 @@
         <v>4.363425925925926E-3</v>
       </c>
       <c r="F17" s="5">
-        <f>E17-D17</f>
+        <f t="shared" si="5"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="G17" s="2">
@@ -8084,7 +8129,7 @@
         <v>4.3055555555555555E-3</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.4722222222221578E-5</v>
       </c>
       <c r="J17" s="2">
@@ -8100,7 +8145,7 @@
         <v>4.2939814814814811E-3</v>
       </c>
       <c r="N17" s="60" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="O17" s="67">
         <v>4.3287037037037035E-3</v>
@@ -8117,28 +8162,30 @@
       <c r="S17" s="67">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="T17" s="52"/>
-      <c r="U17" s="3">
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="3">
         <v>4.3287037037037035E-3</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="W17" s="3">
-        <f xml:space="preserve"> V17-U17</f>
+      <c r="Y17" s="3">
+        <f xml:space="preserve"> X17-W17</f>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X17" s="3">
-        <f>U17-H17</f>
+      <c r="Z17" s="3">
+        <f>W17-H17</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="3">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -8155,7 +8202,7 @@
         <v>5.4050925925925924E-3</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4722222222222446E-5</v>
       </c>
       <c r="G18" s="10">
@@ -8165,7 +8212,7 @@
         <v>5.3819444444444453E-3</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1574074074075305E-5</v>
       </c>
       <c r="J18" s="10">
@@ -8187,27 +8234,29 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="12">
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="12">
         <v>5.4050925925925924E-3</v>
       </c>
-      <c r="V18" s="12">
+      <c r="X18" s="12">
         <v>5.4513888888888884E-3</v>
       </c>
-      <c r="W18" s="12">
-        <f xml:space="preserve"> V18-U18</f>
+      <c r="Y18" s="12">
+        <f xml:space="preserve"> X18-W18</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="X18" s="12">
-        <f>U18-H18</f>
+      <c r="Z18" s="12">
+        <f>W18-H18</f>
         <v>2.3148148148147141E-5</v>
       </c>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="12">
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="12">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -8224,7 +8273,7 @@
         <v>5.9953703703703697E-3</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4305555555555539E-4</v>
       </c>
       <c r="G19" s="2">
@@ -8234,7 +8283,7 @@
         <v>5.8912037037037032E-3</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3888888888888892E-4</v>
       </c>
       <c r="J19" s="2">
@@ -8250,7 +8299,7 @@
         <v>5.9375000000000009E-3</v>
       </c>
       <c r="N19" s="58" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O19" s="3">
         <v>5.9375000000000009E-3</v>
@@ -8267,28 +8316,30 @@
       <c r="S19" s="3">
         <v>6.0185185185185177E-3</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="3">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3">
         <v>5.9375000000000009E-3</v>
       </c>
-      <c r="V19" s="3">
+      <c r="X19" s="3">
         <v>6.0185185185185177E-3</v>
       </c>
-      <c r="W19" s="3">
-        <f xml:space="preserve"> V19-U19</f>
+      <c r="Y19" s="3">
+        <f xml:space="preserve"> X19-W19</f>
         <v>8.1018518518516727E-5</v>
       </c>
-      <c r="X19" s="3">
-        <f>U19-H19</f>
+      <c r="Z19" s="3">
+        <f>W19-H19</f>
         <v>4.6296296296297751E-5</v>
       </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="3">
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -8305,7 +8356,7 @@
         <v>6.5509259259259262E-3</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6203703703703779E-4</v>
       </c>
       <c r="G20" s="2">
@@ -8315,7 +8366,7 @@
         <v>6.3888888888888884E-3</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J20" s="2">
@@ -8325,13 +8376,13 @@
         <v>201</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M20" s="3">
         <v>6.5046296296296302E-3</v>
       </c>
       <c r="N20" s="58" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O20" s="3">
         <v>6.5046296296296302E-3</v>
@@ -8346,32 +8397,34 @@
         <v>6.5277777777777782E-3</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="T20" s="2"/>
-      <c r="U20" s="3">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3">
         <v>6.3888888888888884E-3</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>6.5277777777777782E-3</v>
       </c>
-      <c r="W20" s="3">
-        <f xml:space="preserve"> V20-U20</f>
+      <c r="Y20" s="3">
+        <f xml:space="preserve"> X20-W20</f>
         <v>1.3888888888888978E-4</v>
       </c>
-      <c r="X20" s="3">
-        <f>U20-H20</f>
+      <c r="Z20" s="3">
+        <f>W20-H20</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="3">
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="3">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" s="19">
         <f>SUM(B12:B20)</f>
@@ -8382,7 +8435,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="21">
         <f>SUM(F12:F20)</f>
-        <v>1.9328703703703702E-3</v>
+        <v>1.8865740740740739E-3</v>
       </c>
       <c r="G21" s="19">
         <f>SUM(G12:G20)</f>
@@ -8409,19 +8462,21 @@
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
-      <c r="W21" s="20">
-        <f>SUM(W12:W20)</f>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="20">
+        <f>SUM(Y12:Y20)</f>
         <v>5.6712962962962837E-4</v>
       </c>
-      <c r="X21" s="20">
-        <f>SUM(X12:X20)</f>
-        <v>3.5879629629629619E-4</v>
-      </c>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
+      <c r="Z21" s="20">
+        <f>SUM(Z12:Z20)</f>
+        <v>1.5046296296296325E-4</v>
+      </c>
       <c r="AA21" s="19"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -8435,11 +8490,11 @@
         <v>1.25E-3</v>
       </c>
       <c r="E22" s="5">
-        <v>1.6087962962962963E-3</v>
+        <v>1.5509259259259261E-3</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F30" si="6">E22-D22</f>
-        <v>3.5879629629629629E-4</v>
+        <v>3.0092592592592606E-4</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -8454,39 +8509,57 @@
       <c r="J22" s="2">
         <v>1</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="3">
+      <c r="K22" s="2">
+        <v>103</v>
+      </c>
+      <c r="L22" s="3">
         <v>1.4814814814814814E-3</v>
       </c>
-      <c r="V22" s="3">
-        <v>1.5624999999999999E-3</v>
-      </c>
+      <c r="M22" s="3">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1.5509259259259261E-3</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1.4814814814814814E-3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1.5509259259259261E-3</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="2"/>
       <c r="W22" s="3">
-        <f t="shared" ref="W22:W30" si="8" xml:space="preserve"> V22-U22</f>
-        <v>8.1018518518518462E-5</v>
+        <v>1.4814814814814814E-3</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" ref="X22:X30" si="9">U22-H22</f>
+        <v>1.5509259259259261E-3</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" ref="Y22:Y30" si="8" xml:space="preserve"> X22-W22</f>
+        <v>6.9444444444444675E-5</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" ref="Z22:Z30" si="9">W22-H22</f>
         <v>2.0833333333333316E-4</v>
       </c>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="3">
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -8497,14 +8570,14 @@
         <v>32</v>
       </c>
       <c r="D23" s="5">
-        <v>1.5509259259259261E-3</v>
+        <v>1.4814814814814814E-3</v>
       </c>
       <c r="E23" s="5">
-        <v>3.0902777777777782E-3</v>
+        <v>2.9976851851851848E-3</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="6"/>
-        <v>1.5393518518518521E-3</v>
+        <v>1.5162037037037034E-3</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -8514,23 +8587,41 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="7"/>
-        <v>4.3981481481481476E-4</v>
+        <v>5.0925925925925943E-4</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="K23" s="2">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1.9907407407407408E-3</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>104</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2.0601851851851853E-3</v>
+      </c>
+      <c r="T23" s="66">
+        <v>100</v>
+      </c>
       <c r="U23" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
@@ -8538,20 +8629,26 @@
         <v>2.0601851851851853E-3</v>
       </c>
       <c r="W23" s="3">
+        <v>2.0023148148148148E-3</v>
+      </c>
+      <c r="X23" s="3">
+        <v>2.0601851851851853E-3</v>
+      </c>
+      <c r="Y23" s="3">
         <f t="shared" si="8"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <f t="shared" si="9"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="3">
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -8565,21 +8662,21 @@
         <v>2.1527777777777778E-3</v>
       </c>
       <c r="E24" s="5">
-        <v>2.3148148148148151E-3</v>
+        <v>2.2337962962962967E-3</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="6"/>
-        <v>1.6203703703703736E-4</v>
+        <v>8.1018518518518896E-5</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>2.2222222222222222E-3</v>
+        <v>2.1643518518518518E-3</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="7"/>
-        <v>6.9444444444444458E-5</v>
+        <v>1.1574074074074004E-5</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -8587,8 +8684,12 @@
       <c r="K24" s="52">
         <v>102</v>
       </c>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
+      <c r="L24" s="67">
+        <v>2.1759259259259258E-3</v>
+      </c>
+      <c r="M24" s="67">
+        <v>2.2222222222222222E-3</v>
+      </c>
       <c r="N24" s="60"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
@@ -8596,27 +8697,29 @@
       <c r="R24" s="52"/>
       <c r="S24" s="52"/>
       <c r="T24" s="52"/>
-      <c r="U24" s="3">
-        <v>2.2337962962962967E-3</v>
-      </c>
-      <c r="V24" s="3">
-        <v>2.3148148148148151E-3</v>
-      </c>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
       <c r="W24" s="3">
+        <v>2.1759259259259258E-3</v>
+      </c>
+      <c r="X24" s="3">
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="Y24" s="3">
         <f t="shared" si="8"/>
-        <v>8.1018518518518462E-5</v>
-      </c>
-      <c r="X24" s="3">
+        <v>4.629629629629645E-5</v>
+      </c>
+      <c r="Z24" s="3">
         <f t="shared" si="9"/>
-        <v>1.1574074074074438E-5</v>
-      </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="3">
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -8627,61 +8730,73 @@
         <v>12</v>
       </c>
       <c r="D25" s="5">
-        <v>2.9745370370370373E-3</v>
+        <v>2.9629629629629628E-3</v>
       </c>
       <c r="E25" s="5">
-        <v>3.1481481481481482E-3</v>
+        <v>3.0324074074074073E-3</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="6"/>
-        <v>1.7361111111111093E-4</v>
+        <v>6.9444444444444458E-5</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>3.0324074074074073E-3</v>
+        <v>2.9745370370370373E-3</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="7"/>
-        <v>5.787037037037002E-5</v>
+        <v>1.1574074074074438E-5</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="K25" s="2">
+        <v>200</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2.9861111111111113E-3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3.0092592592592588E-3</v>
+      </c>
+      <c r="N25" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" s="3">
+        <v>2.9976851851851848E-3</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3.0208333333333333E-3</v>
+      </c>
+      <c r="Q25" s="3"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="3">
-        <v>3.0439814814814821E-3</v>
-      </c>
-      <c r="V25" s="3">
-        <v>3.0902777777777782E-3</v>
-      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
       <c r="W25" s="3">
+        <v>2.9861111111111113E-3</v>
+      </c>
+      <c r="X25" s="3">
+        <v>3.0208333333333333E-3</v>
+      </c>
+      <c r="Y25" s="3">
         <f t="shared" si="8"/>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="X25" s="3">
+        <v>3.4722222222222012E-5</v>
+      </c>
+      <c r="Z25" s="3">
         <f t="shared" si="9"/>
-        <v>1.1574074074074871E-5</v>
-      </c>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="3">
+        <v>1.1574074074074004E-5</v>
+      </c>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -8692,61 +8807,79 @@
         <v>22</v>
       </c>
       <c r="D26" s="3">
-        <v>3.7268518518518514E-3</v>
+        <v>3.6805555555555554E-3</v>
       </c>
       <c r="E26" s="3">
         <v>3.9004629629629632E-3</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="6"/>
-        <v>1.736111111111118E-4</v>
+        <v>2.1990740740740781E-4</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>3.8425925925925923E-3</v>
+        <v>3.7731481481481483E-3</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="7"/>
-        <v>1.1574074074074091E-4</v>
+        <v>9.25925925925929E-5</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="K26" s="2">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3.7731481481481483E-3</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3.7962962962962963E-3</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3.7847222222222223E-3</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3.9236111111111112E-3</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3.9120370370370368E-3</v>
+      </c>
+      <c r="S26" s="3">
+        <v>3.9236111111111112E-3</v>
+      </c>
       <c r="T26" s="2"/>
-      <c r="U26" s="3">
-        <v>3.8425925925925923E-3</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3">
+        <v>3.7731481481481483E-3</v>
+      </c>
+      <c r="X26" s="3">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <f t="shared" si="8"/>
-        <v>8.1018518518518896E-5</v>
-      </c>
-      <c r="X26" s="3">
+        <v>1.5046296296296292E-4</v>
+      </c>
+      <c r="Z26" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="3">
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -8757,61 +8890,85 @@
         <v>31</v>
       </c>
       <c r="D27" s="3">
-        <v>4.2361111111111106E-3</v>
+        <v>4.2013888888888891E-3</v>
       </c>
       <c r="E27" s="3">
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="6"/>
-        <v>4.5138888888888919E-4</v>
+        <v>4.8611111111111077E-4</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>4.2939814814814811E-3</v>
+        <v>4.2708333333333339E-3</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="7"/>
-        <v>5.7870370370370454E-5</v>
+        <v>6.9444444444444892E-5</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="K27" s="2">
+        <v>202</v>
+      </c>
+      <c r="L27" s="3">
+        <v>4.5601851851851853E-3</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="N27" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" s="3">
+        <v>4.6527777777777774E-3</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4.6643518518518518E-3</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>104</v>
+      </c>
+      <c r="R27" s="3">
+        <v>4.6527777777777774E-3</v>
+      </c>
+      <c r="S27" s="3">
+        <v>4.6643518518518518E-3</v>
+      </c>
+      <c r="T27" s="2">
+        <v>103</v>
+      </c>
       <c r="U27" s="3">
+        <v>4.6527777777777774E-3</v>
+      </c>
+      <c r="V27" s="3">
+        <v>4.6643518518518518E-3</v>
+      </c>
+      <c r="W27" s="3">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="V27" s="3">
-        <v>4.7453703703703703E-3</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
+        <v>4.6643518518518518E-3</v>
+      </c>
+      <c r="Y27" s="3">
         <f t="shared" si="8"/>
-        <v>1.7361111111111136E-4</v>
-      </c>
-      <c r="X27" s="3">
+        <v>9.25925925925929E-5</v>
+      </c>
+      <c r="Z27" s="3">
         <f t="shared" si="9"/>
-        <v>2.7777777777777783E-4</v>
-      </c>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="3">
+        <v>3.0092592592592497E-4</v>
+      </c>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -8822,61 +8979,73 @@
         <v>30</v>
       </c>
       <c r="D28" s="3">
-        <v>5.208333333333333E-3</v>
+        <v>5.1967592592592595E-3</v>
       </c>
       <c r="E28" s="3">
         <v>5.6944444444444438E-3</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="6"/>
-        <v>4.8611111111111077E-4</v>
+        <v>4.9768518518518434E-4</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>5.2546296296296299E-3</v>
+        <v>5.2430555555555555E-3</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="7"/>
-        <v>4.6296296296296884E-5</v>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="K28" s="2">
+        <v>202</v>
+      </c>
+      <c r="L28" s="3">
+        <v>5.2430555555555555E-3</v>
+      </c>
+      <c r="M28" s="3">
+        <v>5.2893518518518515E-3</v>
+      </c>
+      <c r="N28" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="O28" s="3">
+        <v>5.2662037037037035E-3</v>
+      </c>
+      <c r="P28" s="3">
+        <v>5.3587962962962964E-3</v>
+      </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="3">
-        <v>5.2777777777777771E-3</v>
-      </c>
-      <c r="V28" s="3">
-        <v>5.4166666666666669E-3</v>
-      </c>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
       <c r="W28" s="3">
+        <v>5.2430555555555555E-3</v>
+      </c>
+      <c r="X28" s="3">
+        <v>5.3587962962962964E-3</v>
+      </c>
+      <c r="Y28" s="3">
         <f t="shared" si="8"/>
-        <v>1.3888888888888978E-4</v>
-      </c>
-      <c r="X28" s="3">
+        <v>1.1574074074074091E-4</v>
+      </c>
+      <c r="Z28" s="3">
         <f t="shared" si="9"/>
-        <v>2.3148148148147141E-5</v>
-      </c>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -8887,61 +9056,73 @@
         <v>10</v>
       </c>
       <c r="D29" s="3">
-        <v>5.9375000000000009E-3</v>
+        <v>5.8912037037037032E-3</v>
       </c>
       <c r="E29" s="3">
-        <v>6.1111111111111114E-3</v>
+        <v>6.0069444444444441E-3</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="6"/>
-        <v>1.7361111111111049E-4</v>
+        <v>1.1574074074074091E-4</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>5.9837962962962961E-3</v>
+        <v>5.9259259259259256E-3</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="7"/>
-        <v>4.6296296296295149E-5</v>
+        <v>3.4722222222222446E-5</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="52">
-        <v>100</v>
-      </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
+        <v>201</v>
+      </c>
+      <c r="L29" s="67">
+        <v>5.9259259259259256E-3</v>
+      </c>
+      <c r="M29" s="67">
+        <v>6.0879629629629643E-3</v>
+      </c>
+      <c r="N29" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="O29" s="67">
+        <v>5.9837962962962961E-3</v>
+      </c>
+      <c r="P29" s="67">
+        <v>5.9953703703703697E-3</v>
+      </c>
       <c r="Q29" s="52"/>
       <c r="R29" s="52"/>
       <c r="S29" s="52"/>
       <c r="T29" s="52"/>
-      <c r="U29" s="3">
-        <v>6.053240740740741E-3</v>
-      </c>
-      <c r="V29" s="3">
-        <v>6.2268518518518515E-3</v>
-      </c>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
       <c r="W29" s="3">
+        <v>5.9259259259259256E-3</v>
+      </c>
+      <c r="X29" s="3">
+        <v>5.9953703703703697E-3</v>
+      </c>
+      <c r="Y29" s="3">
         <f t="shared" si="8"/>
-        <v>1.7361111111111049E-4</v>
-      </c>
-      <c r="X29" s="3">
+        <v>6.9444444444444024E-5</v>
+      </c>
+      <c r="Z29" s="3">
         <f t="shared" si="9"/>
-        <v>6.9444444444444892E-5</v>
-      </c>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -8955,11 +9136,11 @@
         <v>6.3310185185185197E-3</v>
       </c>
       <c r="E30" s="3">
-        <v>6.7245370370370367E-3</v>
+        <v>6.7476851851851856E-3</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="6"/>
-        <v>3.93518518518517E-4</v>
+        <v>4.1666666666666588E-4</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -8975,40 +9156,64 @@
         <v>1</v>
       </c>
       <c r="K30" s="2">
-        <v>103</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="L30" s="3">
+        <v>6.4699074074074069E-3</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="O30" s="3">
+        <v>6.4699074074074069E-3</v>
+      </c>
+      <c r="P30" s="3">
+        <v>6.4930555555555549E-3</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>100</v>
+      </c>
+      <c r="R30" s="3">
+        <v>6.5393518518518517E-3</v>
+      </c>
+      <c r="S30" s="3">
+        <v>6.5509259259259262E-3</v>
+      </c>
+      <c r="T30" s="2">
+        <v>105</v>
+      </c>
       <c r="U30" s="3">
-        <v>6.4930555555555549E-3</v>
+        <v>6.5856481481481469E-3</v>
       </c>
       <c r="V30" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
       <c r="W30" s="3">
+        <v>6.4699074074074069E-3</v>
+      </c>
+      <c r="X30" s="3">
+        <v>6.6550925925925935E-3</v>
+      </c>
+      <c r="Y30" s="3">
         <f t="shared" si="8"/>
-        <v>1.6203703703703866E-4</v>
-      </c>
-      <c r="X30" s="3">
+        <v>1.8518518518518667E-4</v>
+      </c>
+      <c r="Z30" s="3">
         <f t="shared" si="9"/>
-        <v>1.0416666666666647E-4</v>
-      </c>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="3">
+        <v>8.1018518518518462E-5</v>
+      </c>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="3">
         <v>7.719907407407408E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" s="19">
         <f>SUM(B22:B30)</f>
@@ -9019,7 +9224,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="21">
         <f>SUM(F22:F30)</f>
-        <v>3.9120370370370359E-3</v>
+        <v>3.7037037037037025E-3</v>
       </c>
       <c r="G31" s="19">
         <f>SUM(G22:G30)</f>
@@ -9028,7 +9233,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="20">
         <f>SUM(I22:I30)</f>
-        <v>9.1435185185184957E-4</v>
+        <v>8.5648148148148107E-4</v>
       </c>
       <c r="J31" s="19">
         <f>SUM(J22:J30)</f>
@@ -9046,21 +9251,23 @@
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
-      <c r="W31" s="20">
-        <f>SUM(W22:W30)</f>
-        <v>9.9537037037037259E-4</v>
-      </c>
-      <c r="X31" s="20">
-        <f>SUM(X22:X30)</f>
-        <v>7.175925925925928E-4</v>
-      </c>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="20">
+        <f>SUM(Y22:Y30)</f>
+        <v>8.2175925925926101E-4</v>
+      </c>
+      <c r="Z31" s="20">
+        <f>SUM(Z22:Z30)</f>
+        <v>6.249999999999986E-4</v>
+      </c>
       <c r="AA31" s="19"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -9072,11 +9279,11 @@
         <v>7.175925925925927E-4</v>
       </c>
       <c r="E32" s="5">
-        <v>8.6805555555555551E-4</v>
+        <v>8.7962962962962962E-4</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" ref="F32:F40" si="10">E32-D32</f>
-        <v>1.5046296296296281E-4</v>
+        <v>1.6203703703703692E-4</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -9094,38 +9301,50 @@
       <c r="K32" s="52">
         <v>101</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
+      <c r="L32" s="67">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="M32" s="67">
+        <v>7.7546296296296304E-4</v>
+      </c>
+      <c r="N32" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="O32" s="67">
+        <v>8.3333333333333339E-4</v>
+      </c>
+      <c r="P32" s="67">
+        <v>8.9120370370370362E-4</v>
+      </c>
       <c r="Q32" s="52"/>
       <c r="R32" s="52"/>
       <c r="S32" s="52"/>
       <c r="T32" s="52"/>
-      <c r="U32" s="3">
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="3">
         <v>7.407407407407407E-4</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>8.9120370370370362E-4</v>
       </c>
-      <c r="W32" s="3">
-        <f xml:space="preserve"> V32-U32</f>
+      <c r="Y32" s="3">
+        <f xml:space="preserve"> X32-W32</f>
         <v>1.5046296296296292E-4</v>
       </c>
-      <c r="X32" s="3">
-        <f>U32-H32</f>
+      <c r="Z32" s="3">
+        <f>W32-H32</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="3">
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -9134,14 +9353,14 @@
         <v>21</v>
       </c>
       <c r="D33" s="5">
-        <v>1.7476851851851852E-3</v>
+        <v>1.736111111111111E-3</v>
       </c>
       <c r="E33" s="5">
         <v>1.9097222222222222E-3</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="10"/>
-        <v>1.6203703703703692E-4</v>
+        <v>1.7361111111111114E-4</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -9151,16 +9370,20 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="11"/>
-        <v>1.1574074074074091E-4</v>
+        <v>1.2731481481481513E-4</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="K33" s="2">
+        <v>202</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1.9097222222222222E-3</v>
+      </c>
       <c r="N33" s="58"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -9168,29 +9391,31 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="3">
-        <v>1.8750000000000001E-3</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3">
+        <v>1.8634259259259261E-3</v>
+      </c>
+      <c r="X33" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="W33" s="3">
-        <f xml:space="preserve"> V33-U33</f>
-        <v>3.4722222222222012E-5</v>
-      </c>
-      <c r="X33" s="3">
-        <f>U33-H33</f>
-        <v>1.1574074074074004E-5</v>
-      </c>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="3">
+      <c r="Y33" s="3">
+        <f xml:space="preserve"> X33-W33</f>
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="Z33" s="3">
+        <f>W33-H33</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -9221,41 +9446,59 @@
       <c r="J34" s="2">
         <v>1</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
+      <c r="K34" s="2">
+        <v>202</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2.6504629629629625E-3</v>
+      </c>
+      <c r="N34" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="O34" s="3">
+        <v>2.627314814814815E-3</v>
+      </c>
+      <c r="P34" s="3">
+        <v>2.627314814814815E-3</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>105</v>
+      </c>
+      <c r="R34" s="3">
+        <v>2.6388888888888885E-3</v>
+      </c>
+      <c r="S34" s="3">
+        <v>2.673611111111111E-3</v>
+      </c>
       <c r="T34" s="2"/>
-      <c r="U34" s="3">
-        <v>2.627314814814815E-3</v>
-      </c>
-      <c r="V34" s="3">
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3">
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="X34" s="3">
         <v>2.673611111111111E-3</v>
       </c>
-      <c r="W34" s="3">
-        <f xml:space="preserve"> V34-U34</f>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="X34" s="3">
-        <f>U34-H34</f>
-        <v>4.2824074074074075E-4</v>
-      </c>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="3">
+      <c r="Y34" s="3">
+        <f xml:space="preserve"> X34-W34</f>
+        <v>6.9444444444444458E-5</v>
+      </c>
+      <c r="Z34" s="3">
+        <f>W34-H34</f>
+        <v>4.0509259259259231E-4</v>
+      </c>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -9264,31 +9507,28 @@
         <v>31</v>
       </c>
       <c r="D35" s="5">
-        <v>2.9050925925925928E-3</v>
-      </c>
-      <c r="E35" s="5">
-        <v>4.4791666666666669E-3</v>
-      </c>
-      <c r="F35" s="5">
+        <v>2.8935185185185188E-3</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="5" t="e">
         <f t="shared" si="10"/>
-        <v>1.5740740740740741E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>4.3981481481481484E-3</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="11"/>
-        <v>1.4930555555555556E-3</v>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="58"/>
@@ -9298,29 +9538,27 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="3">
-        <v>4.4212962962962956E-3</v>
-      </c>
-      <c r="V35" s="3">
-        <v>4.4791666666666669E-3</v>
-      </c>
-      <c r="W35" s="3">
-        <f xml:space="preserve"> V34-U34</f>
-        <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="X35" s="3">
-        <f>U35-H35</f>
-        <v>2.3148148148147141E-5</v>
-      </c>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="3">
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3">
+        <f xml:space="preserve"> X34-W34</f>
+        <v>6.9444444444444458E-5</v>
+      </c>
+      <c r="Z35" s="3" t="e">
+        <f>W35-H35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -9332,11 +9570,11 @@
         <v>3.5648148148148154E-3</v>
       </c>
       <c r="E36" s="3">
-        <v>3.6226851851851854E-3</v>
+        <v>0.21403935185185186</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="10"/>
-        <v>5.787037037037002E-5</v>
+        <v>0.21047453703703703</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -9354,38 +9592,50 @@
       <c r="K36" s="2">
         <v>103</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="L36" s="3">
+        <v>3.5648148148148154E-3</v>
+      </c>
+      <c r="M36" s="3">
+        <v>4.2824074074074075E-3</v>
+      </c>
+      <c r="N36" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="O36" s="3">
+        <v>3.6111111111111114E-3</v>
+      </c>
+      <c r="P36" s="3">
+        <v>3.6226851851851854E-3</v>
+      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="3">
-        <v>3.5879629629629629E-3</v>
-      </c>
-      <c r="V36" s="3">
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="3">
+        <v>3.5648148148148154E-3</v>
+      </c>
+      <c r="X36" s="3">
         <v>3.6226851851851854E-3</v>
       </c>
-      <c r="W36" s="3">
-        <f xml:space="preserve"> V35-U35</f>
-        <v>5.7870370370371321E-5</v>
-      </c>
-      <c r="X36" s="3">
-        <f>U35-H36</f>
-        <v>8.564814814814802E-4</v>
-      </c>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="3">
+      <c r="Y36" s="3">
+        <f xml:space="preserve"> X35-W35</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <f>W35-H36</f>
+        <v>-3.5648148148148154E-3</v>
+      </c>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -9394,14 +9644,14 @@
         <v>22</v>
       </c>
       <c r="D37" s="3">
-        <v>4.1782407407407402E-3</v>
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="E37" s="3">
-        <v>4.6643518518518518E-3</v>
+        <v>4.7106481481481478E-3</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="10"/>
-        <v>4.8611111111111164E-4</v>
+        <v>1.2731481481481448E-4</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -9411,46 +9661,58 @@
       </c>
       <c r="I37" s="3">
         <f t="shared" si="11"/>
-        <v>4.1666666666666761E-4</v>
+        <v>1.1574074074074438E-5</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="K37" s="2">
+        <v>103</v>
+      </c>
+      <c r="L37" s="3">
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="M37" s="3">
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="N37" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="O37" s="3">
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="P37" s="3">
+        <v>4.6643518518518518E-3</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="3">
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="3">
         <v>4.6180555555555558E-3</v>
       </c>
-      <c r="V37" s="3">
+      <c r="X37" s="3">
         <v>4.6643518518518518E-3</v>
       </c>
-      <c r="W37" s="3">
-        <f xml:space="preserve"> V37-U37</f>
+      <c r="Y37" s="3">
+        <f xml:space="preserve"> X37-W37</f>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="X37" s="3">
-        <f>U37-H37</f>
+      <c r="Z37" s="3">
+        <f>W37-H37</f>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="3">
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -9459,14 +9721,14 @@
         <v>20</v>
       </c>
       <c r="D38" s="3">
-        <v>4.9074074074074072E-3</v>
+        <v>4.9189814814814816E-3</v>
       </c>
       <c r="E38" s="3">
         <v>5.1504629629629635E-3</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="10"/>
-        <v>2.4305555555555625E-4</v>
+        <v>2.3148148148148182E-4</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -9476,7 +9738,7 @@
       </c>
       <c r="I38" s="3">
         <f t="shared" si="11"/>
-        <v>3.4722222222221578E-5</v>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -9484,38 +9746,50 @@
       <c r="K38" s="2">
         <v>103</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="L38" s="3">
+        <v>4.9421296296296288E-3</v>
+      </c>
+      <c r="M38" s="3">
+        <v>4.9537037037037041E-3</v>
+      </c>
+      <c r="N38" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="O38" s="3">
+        <v>4.9537037037037041E-3</v>
+      </c>
+      <c r="P38" s="3">
+        <v>5.0115740740740737E-3</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="3">
-        <v>4.9537037037037041E-3</v>
-      </c>
-      <c r="V38" s="3">
-        <v>5.0694444444444441E-3</v>
-      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
       <c r="W38" s="3">
-        <f xml:space="preserve"> V38-U38</f>
-        <v>1.1574074074074004E-4</v>
+        <v>4.9421296296296288E-3</v>
       </c>
       <c r="X38" s="3">
-        <f>U38-H38</f>
-        <v>1.1574074074075305E-5</v>
-      </c>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="3">
+        <v>5.0115740740740737E-3</v>
+      </c>
+      <c r="Y38" s="3">
+        <f xml:space="preserve"> X38-W38</f>
+        <v>6.9444444444444892E-5</v>
+      </c>
+      <c r="Z38" s="3">
+        <f>W38-H38</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -9524,14 +9798,14 @@
         <v>30</v>
       </c>
       <c r="D39" s="3">
-        <v>5.6134259259259271E-3</v>
+        <v>5.6018518518518518E-3</v>
       </c>
       <c r="E39" s="3">
-        <v>5.9606481481481489E-3</v>
+        <v>5.9722222222222225E-3</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="10"/>
-        <v>3.4722222222222186E-4</v>
+        <v>3.7037037037037073E-4</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -9541,46 +9815,70 @@
       </c>
       <c r="I39" s="3">
         <f t="shared" si="11"/>
-        <v>1.041666666666656E-4</v>
+        <v>1.1574074074074091E-4</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
+      <c r="K39" s="2">
+        <v>202</v>
+      </c>
+      <c r="L39" s="3">
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="M39" s="3">
+        <v>5.9722222222222225E-3</v>
+      </c>
+      <c r="N39" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="O39" s="3">
+        <v>5.9375000000000009E-3</v>
+      </c>
+      <c r="P39" s="3">
+        <v>5.9722222222222225E-3</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>104</v>
+      </c>
+      <c r="R39" s="3">
+        <v>5.9375000000000009E-3</v>
+      </c>
+      <c r="S39" s="3">
+        <v>5.9722222222222225E-3</v>
+      </c>
+      <c r="T39" s="2">
+        <v>103</v>
+      </c>
       <c r="U39" s="3">
-        <v>5.9027777777777776E-3</v>
+        <v>5.9722222222222225E-3</v>
       </c>
       <c r="V39" s="3">
         <v>5.9722222222222225E-3</v>
       </c>
       <c r="W39" s="3">
-        <f xml:space="preserve"> V39-U39</f>
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="X39" s="3">
+        <v>5.9722222222222225E-3</v>
+      </c>
+      <c r="Y39" s="3">
+        <f xml:space="preserve"> X39-W39</f>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="X39" s="3">
-        <f>U39-H39</f>
+      <c r="Z39" s="3">
+        <f>W39-H39</f>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="3">
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -9592,11 +9890,11 @@
         <v>6.2037037037037043E-3</v>
       </c>
       <c r="E40" s="3">
-        <v>6.3194444444444444E-3</v>
+        <v>6.3078703703703708E-3</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="10"/>
-        <v>1.1574074074074004E-4</v>
+        <v>1.0416666666666647E-4</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -9611,41 +9909,53 @@
       <c r="J40" s="2">
         <v>1</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="K40" s="2">
+        <v>202</v>
+      </c>
+      <c r="L40" s="3">
+        <v>6.2731481481481484E-3</v>
+      </c>
+      <c r="M40" s="3">
+        <v>6.2847222222222228E-3</v>
+      </c>
+      <c r="N40" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="O40" s="3">
+        <v>6.2731481481481484E-3</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="3">
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="3">
         <v>6.2731481481481484E-3</v>
       </c>
-      <c r="V40" s="3">
+      <c r="X40" s="3">
         <v>6.3078703703703708E-3</v>
       </c>
-      <c r="W40" s="3">
-        <f xml:space="preserve"> V40-U40</f>
+      <c r="Y40" s="3">
+        <f xml:space="preserve"> X40-W40</f>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="X40" s="3">
-        <f>U40-H40</f>
+      <c r="Z40" s="3">
+        <f>W40-H40</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="3">
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="3">
         <v>7.1412037037037043E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" s="19">
         <f>SUM(B32:B40)</f>
@@ -9654,22 +9964,22 @@
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="21">
+      <c r="F41" s="21" t="e">
         <f>SUM(F32:F40)</f>
-        <v>3.6226851851851849E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G41" s="19">
         <f>SUM(G32:G40)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="20">
         <f>SUM(I32:I40)</f>
-        <v>2.2106481481481469E-3</v>
+        <v>3.240740740740732E-4</v>
       </c>
       <c r="J41" s="19">
         <f>SUM(J32:J40)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -9683,21 +9993,23 @@
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="19"/>
-      <c r="W41" s="20">
-        <f>SUM(W32:W40)</f>
-        <v>6.0185185185185168E-4</v>
-      </c>
-      <c r="X41" s="20">
-        <f>SUM(X32:X40)</f>
-        <v>1.5972222222222212E-3</v>
-      </c>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="20">
+        <f>SUM(Y32:Y40)</f>
+        <v>5.555555555555561E-4</v>
+      </c>
+      <c r="Z41" s="20" t="e">
+        <f>SUM(Z32:Z40)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="AA41" s="19"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -9706,14 +10018,14 @@
         <v>22</v>
       </c>
       <c r="D42" s="5">
-        <v>9.8379629629629642E-4</v>
+        <v>9.7222222222222209E-4</v>
       </c>
       <c r="E42" s="5">
         <v>1.712962962962963E-3</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ref="F42:F49" si="12">E42-D42</f>
-        <v>7.2916666666666659E-4</v>
+        <v>7.4074074074074092E-4</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -9723,7 +10035,7 @@
       </c>
       <c r="I42" s="3">
         <f t="shared" ref="I42:I50" si="13">H42-D42</f>
-        <v>3.4722222222222229E-5</v>
+        <v>4.6296296296296558E-5</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -9731,38 +10043,50 @@
       <c r="K42" s="2">
         <v>103</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="L42" s="3">
+        <v>1.6782407407407406E-3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1.689814814814815E-3</v>
+      </c>
+      <c r="N42" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1.6782407407407406E-3</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1.7013888888888892E-3</v>
+      </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="3">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="3">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="V42" s="3">
-        <v>1.712962962962963E-3</v>
-      </c>
-      <c r="W42" s="3">
-        <f t="shared" ref="W42:W50" si="14" xml:space="preserve"> V42-U42</f>
-        <v>3.4722222222222446E-5</v>
-      </c>
       <c r="X42" s="3">
-        <f t="shared" ref="X42:X50" si="15">U42-H42</f>
+        <v>1.7013888888888892E-3</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" ref="Y42:Y50" si="14" xml:space="preserve"> X42-W42</f>
+        <v>2.3148148148148659E-5</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" ref="Z42:Z50" si="15">W42-H42</f>
         <v>6.5972222222222192E-4</v>
       </c>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="3">
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -9774,11 +10098,11 @@
         <v>1.5277777777777779E-3</v>
       </c>
       <c r="E43" s="5">
-        <v>2.1527777777777778E-3</v>
+        <v>2.1296296296296298E-3</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="12"/>
-        <v>6.249999999999999E-4</v>
+        <v>6.018518518518519E-4</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -9793,41 +10117,65 @@
       <c r="J43" s="2">
         <v>1</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
+      <c r="K43" s="2">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2.7662037037037034E-3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>2.0949074074074073E-3</v>
+      </c>
+      <c r="N43" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2.0949074074074073E-3</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>202</v>
+      </c>
+      <c r="R43" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2.1064814814814813E-3</v>
+      </c>
+      <c r="T43" s="2">
+        <v>105</v>
+      </c>
       <c r="U43" s="3">
-        <v>2.0833333333333333E-3</v>
+        <v>2.1064814814814813E-3</v>
       </c>
       <c r="V43" s="3">
         <v>2.1296296296296298E-3</v>
       </c>
       <c r="W43" s="3">
+        <v>2.7662037037037034E-3</v>
+      </c>
+      <c r="X43" s="3">
+        <v>2.1296296296296298E-3</v>
+      </c>
+      <c r="Y43" s="3">
         <f t="shared" si="14"/>
-        <v>4.629629629629645E-5</v>
-      </c>
-      <c r="X43" s="3">
+        <v>-6.3657407407407369E-4</v>
+      </c>
+      <c r="Z43" s="3">
         <f t="shared" si="15"/>
-        <v>5.4398148148148144E-4</v>
-      </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="3">
+        <v>1.2268518518518516E-3</v>
+      </c>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -9839,11 +10187,11 @@
         <v>2.2337962962962967E-3</v>
       </c>
       <c r="E44" s="5">
-        <v>2.3495370370370371E-3</v>
+        <v>2.3842592592592591E-3</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="12"/>
-        <v>1.1574074074074047E-4</v>
+        <v>1.5046296296296249E-4</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -9859,40 +10207,52 @@
         <v>1</v>
       </c>
       <c r="K44" s="52">
-        <v>102</v>
-      </c>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
+        <v>100</v>
+      </c>
+      <c r="L44" s="67">
+        <v>2.2685185185185182E-3</v>
+      </c>
+      <c r="M44" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="N44" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="O44" s="67">
+        <v>2.3379629629629631E-3</v>
+      </c>
+      <c r="P44" s="67">
+        <v>2.3726851851851851E-3</v>
+      </c>
       <c r="Q44" s="52"/>
       <c r="R44" s="52"/>
       <c r="S44" s="52"/>
       <c r="T44" s="52"/>
-      <c r="U44" s="3">
-        <v>2.2800925925925927E-3</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="3">
+        <v>2.2685185185185182E-3</v>
+      </c>
+      <c r="X44" s="3">
         <v>2.3726851851851851E-3</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <f t="shared" si="14"/>
-        <v>9.2592592592592466E-5</v>
-      </c>
-      <c r="X44" s="3">
+        <v>1.041666666666669E-4</v>
+      </c>
+      <c r="Z44" s="3">
         <f t="shared" si="15"/>
-        <v>3.4722222222222446E-5</v>
-      </c>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="3">
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -9901,10 +10261,10 @@
         <v>32</v>
       </c>
       <c r="D45" s="5">
-        <v>3.2407407407407406E-3</v>
+        <v>3.2291666666666666E-3</v>
       </c>
       <c r="E45" s="5">
-        <v>3.7847222222222223E-3</v>
+        <v>3.7731481481481483E-3</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="12"/>
@@ -9918,7 +10278,7 @@
       </c>
       <c r="I45" s="3">
         <f t="shared" si="13"/>
-        <v>5.7870370370370454E-5</v>
+        <v>6.9444444444444458E-5</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -9926,38 +10286,50 @@
       <c r="K45" s="2">
         <v>103</v>
       </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="L45" s="3">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="M45" s="3">
+        <v>3.7152777777777774E-3</v>
+      </c>
+      <c r="N45" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="O45" s="3">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="P45" s="3">
+        <v>3.7615740740740739E-3</v>
+      </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="3">
-        <v>3.7152777777777774E-3</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="3">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="X45" s="3">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <f t="shared" si="14"/>
-        <v>4.629629629629645E-5</v>
-      </c>
-      <c r="X45" s="3">
+        <v>5.7870370370370454E-5</v>
+      </c>
+      <c r="Z45" s="3">
         <f t="shared" si="15"/>
-        <v>4.1666666666666631E-4</v>
-      </c>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="3">
+        <v>4.0509259259259231E-4</v>
+      </c>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -9966,20 +10338,20 @@
         <v>33</v>
       </c>
       <c r="D46" s="3">
-        <v>3.7268518518518514E-3</v>
+        <v>3.7152777777777774E-3</v>
       </c>
       <c r="E46" s="3">
-        <v>4.0277777777777777E-3</v>
+        <v>3.8888888888888883E-3</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="12"/>
-        <v>3.0092592592592627E-4</v>
+        <v>1.7361111111111093E-4</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="3">
-        <v>3.8310185185185183E-3</v>
+        <v>3.8194444444444443E-3</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="13"/>
@@ -9988,41 +10360,53 @@
       <c r="J46" s="2">
         <v>1</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="K46" s="2">
+        <v>202</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3.8425925925925923E-3</v>
+      </c>
+      <c r="M46" s="3">
+        <v>3.8888888888888883E-3</v>
+      </c>
+      <c r="N46" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="O46" s="3">
+        <v>3.8541666666666668E-3</v>
+      </c>
+      <c r="P46" s="3">
+        <v>3.8541666666666668E-3</v>
+      </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="3">
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="3">
         <v>3.8425925925925923E-3</v>
       </c>
-      <c r="V46" s="3">
-        <v>4.0046296296296297E-3</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
+        <v>3.8888888888888883E-3</v>
+      </c>
+      <c r="Y46" s="3">
         <f t="shared" si="14"/>
-        <v>1.6203703703703736E-4</v>
-      </c>
-      <c r="X46" s="3">
+        <v>4.6296296296296016E-5</v>
+      </c>
+      <c r="Z46" s="3">
         <f t="shared" si="15"/>
-        <v>1.1574074074074004E-5</v>
-      </c>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="3">
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -10031,14 +10415,14 @@
         <v>12</v>
       </c>
       <c r="D47" s="3">
-        <v>4.8148148148148152E-3</v>
+        <v>4.8379629629629632E-3</v>
       </c>
       <c r="E47" s="3">
-        <v>4.8611111111111112E-3</v>
+        <v>4.8726851851851856E-3</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="12"/>
-        <v>4.6296296296296016E-5</v>
+        <v>3.4722222222222446E-5</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -10048,7 +10432,7 @@
       </c>
       <c r="I47" s="3">
         <f>H47-D47</f>
-        <v>2.3148148148148008E-5</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -10056,8 +10440,12 @@
       <c r="K47" s="52">
         <v>101</v>
       </c>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
+      <c r="L47" s="67">
+        <v>4.8379629629629632E-3</v>
+      </c>
+      <c r="M47" s="67">
+        <v>4.155092592592593E-3</v>
+      </c>
       <c r="N47" s="60"/>
       <c r="O47" s="52"/>
       <c r="P47" s="52"/>
@@ -10065,29 +10453,31 @@
       <c r="R47" s="52"/>
       <c r="S47" s="52"/>
       <c r="T47" s="52"/>
-      <c r="U47" s="3">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="V47" s="3">
-        <v>4.8842592592592592E-3</v>
-      </c>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
       <c r="W47" s="3">
+        <v>4.8379629629629632E-3</v>
+      </c>
+      <c r="X47" s="3">
+        <v>4.8495370370370368E-3</v>
+      </c>
+      <c r="Y47" s="3">
         <f t="shared" si="14"/>
-        <v>2.3148148148148008E-5</v>
-      </c>
-      <c r="X47" s="3">
+        <v>1.157407407407357E-5</v>
+      </c>
+      <c r="Z47" s="3">
         <f t="shared" si="15"/>
-        <v>2.3148148148148008E-5</v>
-      </c>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -10109,11 +10499,11 @@
         <v>1</v>
       </c>
       <c r="H48" s="3">
-        <v>5.1273148148148146E-3</v>
+        <v>5.1041666666666666E-3</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="13"/>
-        <v>2.3148148148148008E-5</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -10121,8 +10511,12 @@
       <c r="K48" s="2">
         <v>105</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="L48" s="3">
+        <v>5.1273148148148146E-3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>5.138888888888889E-3</v>
+      </c>
       <c r="N48" s="58"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -10130,29 +10524,31 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="3">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="3">
+        <v>5.1273148148148146E-3</v>
+      </c>
+      <c r="X48" s="3">
         <v>5.138888888888889E-3</v>
       </c>
-      <c r="V48" s="3">
-        <v>5.1736111111111115E-3</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <f t="shared" si="14"/>
-        <v>3.4722222222222446E-5</v>
-      </c>
-      <c r="X48" s="3">
+        <v>1.1574074074074438E-5</v>
+      </c>
+      <c r="Z48" s="3">
         <f t="shared" si="15"/>
-        <v>1.1574074074074438E-5</v>
-      </c>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="3">
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -10161,63 +10557,81 @@
         <v>31</v>
       </c>
       <c r="D49" s="3">
-        <v>5.8217592592592592E-3</v>
+        <v>5.7175925925925927E-3</v>
       </c>
       <c r="E49" s="3">
-        <v>6.1111111111111114E-3</v>
+        <v>6.122685185185185E-3</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="12"/>
-        <v>2.8935185185185227E-4</v>
+        <v>4.0509259259259231E-4</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>6.0648148148148145E-3</v>
+        <v>5.7407407407407416E-3</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="13"/>
-        <v>2.4305555555555539E-4</v>
+        <v>2.3148148148148875E-5</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2">
-        <v>103</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="L49" s="3">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>6.053240740740741E-3</v>
+      </c>
+      <c r="N49" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="O49" s="3">
+        <v>6.0416666666666665E-3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>6.053240740740741E-3</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="S49" s="3">
+        <v>6.053240740740741E-3</v>
+      </c>
       <c r="T49" s="2"/>
-      <c r="U49" s="3">
-        <v>6.076388888888889E-3</v>
-      </c>
-      <c r="V49" s="3">
-        <v>6.0995370370370361E-3</v>
-      </c>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
       <c r="W49" s="3">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="X49" s="3">
+        <v>6.053240740740741E-3</v>
+      </c>
+      <c r="Y49" s="3">
         <f t="shared" si="14"/>
-        <v>2.3148148148147141E-5</v>
-      </c>
-      <c r="X49" s="3">
+        <v>2.3148148148148008E-5</v>
+      </c>
+      <c r="Z49" s="3">
         <f t="shared" si="15"/>
-        <v>1.1574074074074438E-5</v>
-      </c>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="3">
+        <v>2.893518518518514E-4</v>
+      </c>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -10229,21 +10643,21 @@
         <v>6.4814814814814813E-3</v>
       </c>
       <c r="E50" s="3">
-        <v>6.6898148148148142E-3</v>
+        <v>6.6782407407407415E-3</v>
       </c>
       <c r="F50" s="5">
         <f>E50-D50</f>
-        <v>2.0833333333333294E-4</v>
+        <v>1.9675925925926024E-4</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
       </c>
       <c r="H50" s="3">
-        <v>6.5393518518518517E-3</v>
+        <v>6.5162037037037037E-3</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="13"/>
-        <v>5.7870370370370454E-5</v>
+        <v>3.4722222222222446E-5</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -10251,8 +10665,12 @@
       <c r="K50" s="2">
         <v>105</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="L50" s="3">
+        <v>6.6435185185185182E-3</v>
+      </c>
+      <c r="M50" s="3">
+        <v>6.6550925925925935E-3</v>
+      </c>
       <c r="N50" s="58"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -10260,29 +10678,31 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="3">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="3">
+        <v>6.6435185185185182E-3</v>
+      </c>
+      <c r="X50" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="V50" s="3">
-        <v>6.6898148148148142E-3</v>
-      </c>
-      <c r="W50" s="3">
+      <c r="Y50" s="3">
         <f t="shared" si="14"/>
-        <v>3.4722222222220711E-5</v>
-      </c>
-      <c r="X50" s="3">
+        <v>1.1574074074075305E-5</v>
+      </c>
+      <c r="Z50" s="3">
         <f t="shared" si="15"/>
-        <v>1.1574074074074178E-4</v>
-      </c>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="3">
+        <v>1.2731481481481448E-4</v>
+      </c>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="3">
         <v>7.2337962962962963E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B51" s="19">
         <f>SUM(B42:B50)</f>
@@ -10293,7 +10713,7 @@
       <c r="E51" s="19"/>
       <c r="F51" s="21">
         <f>SUM(F42:F50)</f>
-        <v>2.9398148148148148E-3</v>
+        <v>2.9282407407407412E-3</v>
       </c>
       <c r="G51" s="19">
         <f>SUM(G42:G50)</f>
@@ -10302,7 +10722,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="20">
         <f>SUM(I42:I50)</f>
-        <v>5.6712962962962902E-4</v>
+        <v>3.0092592592592682E-4</v>
       </c>
       <c r="J51" s="19">
         <f>SUM(J42:J50)</f>
@@ -10320,21 +10740,23 @@
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
-      <c r="W51" s="20">
-        <f>SUM(W42:W50)</f>
-        <v>4.9768518518518347E-4</v>
-      </c>
-      <c r="X51" s="20">
-        <f>SUM(X42:X50)</f>
-        <v>1.8287037037037048E-3</v>
-      </c>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="20">
+        <f>SUM(Y42:Y50)</f>
+        <v>-3.4722222222222034E-4</v>
+      </c>
+      <c r="Z51" s="20">
+        <f>SUM(Z42:Z50)</f>
+        <v>2.7777777777777757E-3</v>
+      </c>
       <c r="AA51" s="19"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -10342,15 +10764,11 @@
       <c r="C52" s="52">
         <v>21</v>
       </c>
-      <c r="D52" s="5">
-        <v>9.8379629629629642E-4</v>
-      </c>
-      <c r="E52" s="5">
-        <v>1.2731481481481483E-3</v>
-      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="5">
         <f>E52-D52</f>
-        <v>2.8935185185185184E-4</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -10360,7 +10778,7 @@
       </c>
       <c r="I52" s="3">
         <f t="shared" ref="I52:I80" si="16">H52-D52</f>
-        <v>2.0833333333333316E-4</v>
+        <v>1.1921296296296296E-3</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -10377,29 +10795,31 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="3">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="3">
         <v>1.2268518518518518E-3</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1.2731481481481483E-3</v>
       </c>
-      <c r="W52" s="3">
-        <f t="shared" ref="W52:W70" si="17" xml:space="preserve"> V52-U52</f>
+      <c r="Y52" s="3">
+        <f t="shared" ref="Y52:Y70" si="17" xml:space="preserve"> X52-W52</f>
         <v>4.629629629629645E-5</v>
       </c>
-      <c r="X52" s="3">
-        <f>U52-H52</f>
+      <c r="Z52" s="3">
+        <f>W52-H52</f>
         <v>3.4722222222222229E-5</v>
       </c>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="3">
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -10407,15 +10827,11 @@
       <c r="C53" s="2">
         <v>32</v>
       </c>
-      <c r="D53" s="5">
-        <v>1.7708333333333332E-3</v>
-      </c>
-      <c r="E53" s="5">
-        <v>3.1134259259259257E-3</v>
-      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="5">
         <f t="shared" ref="F53:F80" si="18">E53-D53</f>
-        <v>1.3425925925925925E-3</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -10441,27 +10857,29 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
       <c r="W53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="3">
+      <c r="Y53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -10469,15 +10887,11 @@
       <c r="C54" s="1">
         <v>11</v>
       </c>
-      <c r="D54" s="5">
-        <v>2.5231481481481481E-3</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2.615740740740741E-3</v>
-      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="5">
         <f t="shared" si="18"/>
-        <v>9.25925925925929E-5</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -10487,7 +10901,7 @@
       </c>
       <c r="I54" s="3">
         <f t="shared" si="16"/>
-        <v>1.1574074074074004E-5</v>
+        <v>2.5347222222222221E-3</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -10504,29 +10918,31 @@
       <c r="R54" s="52"/>
       <c r="S54" s="52"/>
       <c r="T54" s="52"/>
-      <c r="U54" s="3">
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="3">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2.615740740740741E-3</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <f t="shared" si="17"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="X54" s="3">
-        <f t="shared" ref="X54:X60" si="19">U54-H54</f>
+      <c r="Z54" s="3">
+        <f t="shared" ref="Z54:Z60" si="19">W54-H54</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="3">
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -10534,15 +10950,11 @@
       <c r="C55" s="2">
         <v>12</v>
       </c>
-      <c r="D55" s="3">
-        <v>3.1712962962962958E-3</v>
-      </c>
-      <c r="E55" s="3">
-        <v>3.2407407407407406E-3</v>
-      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
       <c r="F55" s="5">
         <f t="shared" si="18"/>
-        <v>6.9444444444444892E-5</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -10552,7 +10964,7 @@
       </c>
       <c r="I55" s="3">
         <f t="shared" si="16"/>
-        <v>1.1574074074074438E-5</v>
+        <v>3.1828703703703702E-3</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -10569,29 +10981,31 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="3">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="3">
         <v>3.1944444444444442E-3</v>
       </c>
-      <c r="V55" s="3">
+      <c r="X55" s="3">
         <v>3.2523148148148151E-3</v>
       </c>
-      <c r="W55" s="3">
+      <c r="Y55" s="3">
         <f t="shared" si="17"/>
         <v>5.7870370370370888E-5</v>
       </c>
-      <c r="X55" s="3">
+      <c r="Z55" s="3">
         <f t="shared" si="19"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="3">
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -10599,15 +11013,11 @@
       <c r="C56" s="52">
         <v>22</v>
       </c>
-      <c r="D56" s="3">
-        <v>3.7268518518518514E-3</v>
-      </c>
-      <c r="E56" s="3">
-        <v>4.0277777777777777E-3</v>
-      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="5">
         <f t="shared" si="18"/>
-        <v>3.0092592592592627E-4</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -10617,7 +11027,7 @@
       </c>
       <c r="I56" s="3">
         <f t="shared" si="16"/>
-        <v>2.5462962962963026E-4</v>
+        <v>3.9814814814814817E-3</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -10634,29 +11044,31 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="3">
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="3">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="V56" s="3">
+      <c r="X56" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="W56" s="3">
+      <c r="Y56" s="3">
         <f t="shared" si="17"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="X56" s="3">
+      <c r="Z56" s="3">
         <f t="shared" si="19"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="3">
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -10664,15 +11076,11 @@
       <c r="C57" s="2">
         <v>31</v>
       </c>
-      <c r="D57" s="3">
-        <v>4.5486111111111109E-3</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4.7222222222222223E-3</v>
-      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="5">
         <f t="shared" si="18"/>
-        <v>1.7361111111111136E-4</v>
+        <v>0</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -10682,13 +11090,13 @@
       </c>
       <c r="I57" s="3">
         <f t="shared" si="16"/>
-        <v>1.3888888888888892E-4</v>
+        <v>4.6874999999999998E-3</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -10699,29 +11107,31 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="3">
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="3">
         <v>4.7106481481481478E-3</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4.7222222222222223E-3</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <f t="shared" si="17"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <f t="shared" si="19"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="3">
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -10729,15 +11139,11 @@
       <c r="C58" s="2">
         <v>30</v>
       </c>
-      <c r="D58" s="3">
-        <v>5.3935185185185188E-3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5.5439814814814822E-3</v>
-      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="5">
         <f t="shared" si="18"/>
-        <v>1.5046296296296335E-4</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -10747,13 +11153,13 @@
       </c>
       <c r="I58" s="3">
         <f t="shared" si="16"/>
-        <v>1.157407407407357E-5</v>
+        <v>5.4050925925925924E-3</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -10764,29 +11170,31 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="3">
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="3">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>5.5439814814814822E-3</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <f t="shared" si="17"/>
         <v>1.2731481481481535E-4</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <f t="shared" si="19"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="3">
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -10794,15 +11202,11 @@
       <c r="C59" s="1">
         <v>10</v>
       </c>
-      <c r="D59" s="3">
-        <v>5.7986111111111112E-3</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5.9606481481481489E-3</v>
-      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="5">
         <f t="shared" si="18"/>
-        <v>1.6203703703703779E-4</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -10812,13 +11216,13 @@
       </c>
       <c r="I59" s="3">
         <f t="shared" si="16"/>
-        <v>6.9444444444443157E-5</v>
+        <v>5.8680555555555543E-3</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -10829,29 +11233,31 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="3">
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="3">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5.9375000000000009E-3</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <f t="shared" si="17"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <f t="shared" si="19"/>
         <v>3.4722222222223313E-5</v>
       </c>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="3">
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -10859,15 +11265,11 @@
       <c r="C60" s="2">
         <v>33</v>
       </c>
-      <c r="D60" s="3">
-        <v>6.5162037037037037E-3</v>
-      </c>
-      <c r="E60" s="3">
-        <v>6.6782407407407415E-3</v>
-      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="5">
         <f t="shared" si="18"/>
-        <v>1.6203703703703779E-4</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -10877,7 +11279,7 @@
       </c>
       <c r="I60" s="3">
         <f t="shared" si="16"/>
-        <v>1.1574074074074091E-4</v>
+        <v>6.6319444444444446E-3</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -10894,29 +11296,31 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="3">
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="3">
         <v>6.6550925925925935E-3</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <f t="shared" si="17"/>
         <v>5.7870370370368719E-5</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <f t="shared" si="19"/>
         <v>2.3148148148148875E-5</v>
       </c>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="3">
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="3">
         <v>7.5231481481481477E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" s="19">
         <f>SUM(B52:B60)</f>
@@ -10927,13 +11331,13 @@
       <c r="E61" s="19"/>
       <c r="F61" s="21">
         <f>SUM(F52:F60)</f>
-        <v>2.7430555555555585E-3</v>
+        <v>0</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="20">
         <f>SUM(I52:I60)</f>
-        <v>8.2175925925925841E-4</v>
+        <v>3.3483796296296296E-2</v>
       </c>
       <c r="J61" s="19">
         <f>SUM(J52:J60)</f>
@@ -10951,21 +11355,23 @@
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
       <c r="V61" s="19"/>
-      <c r="W61" s="20">
-        <f>SUM(W52:W60)</f>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="20">
+        <f>SUM(Y52:Y60)</f>
         <v>4.2824074074074205E-4</v>
       </c>
-      <c r="X61" s="20">
-        <f>SUM(X52:X60)</f>
+      <c r="Z61" s="20">
+        <f>SUM(Z52:Z60)</f>
         <v>1.7361111111111288E-4</v>
       </c>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
       <c r="AA61" s="19"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -10973,15 +11379,11 @@
       <c r="C62" s="1">
         <v>11</v>
       </c>
-      <c r="D62" s="5">
-        <v>9.9537037037037042E-4</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1.1689814814814816E-3</v>
-      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="5">
         <f t="shared" si="18"/>
-        <v>1.7361111111111114E-4</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -10991,7 +11393,7 @@
       </c>
       <c r="I62" s="3">
         <f t="shared" si="16"/>
-        <v>1.1574074074074004E-5</v>
+        <v>1.0069444444444444E-3</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -11008,29 +11410,31 @@
       <c r="R62" s="52"/>
       <c r="S62" s="52"/>
       <c r="T62" s="52"/>
-      <c r="U62" s="3">
+      <c r="U62" s="52"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="3">
         <v>1.0300925925925926E-3</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1.1689814814814816E-3</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <f t="shared" si="17"/>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="X62" s="3">
-        <f t="shared" ref="X62:X70" si="20">U62-H62</f>
+      <c r="Z62" s="3">
+        <f t="shared" ref="Z62:Z70" si="20">W62-H62</f>
         <v>2.3148148148148225E-5</v>
       </c>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="3">
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -11038,15 +11442,11 @@
       <c r="C63" s="52">
         <v>21</v>
       </c>
-      <c r="D63" s="5">
-        <v>1.6666666666666668E-3</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1.8865740740740742E-3</v>
-      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="5">
         <f t="shared" si="18"/>
-        <v>2.1990740740740738E-4</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -11056,13 +11456,13 @@
       </c>
       <c r="I63" s="3">
         <f t="shared" si="16"/>
-        <v>1.7361111111111093E-4</v>
+        <v>1.8402777777777777E-3</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -11073,29 +11473,31 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="3">
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="3">
         <v>1.8518518518518517E-3</v>
       </c>
-      <c r="V63" s="3">
+      <c r="X63" s="3">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="W63" s="3">
+      <c r="Y63" s="3">
         <f t="shared" si="17"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="X63" s="3">
+      <c r="Z63" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="3">
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -11103,15 +11505,11 @@
       <c r="C64" s="2">
         <v>32</v>
       </c>
-      <c r="D64" s="5">
-        <v>2.2453703703703702E-3</v>
-      </c>
-      <c r="E64" s="5">
-        <v>2.5810185185185185E-3</v>
-      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="5">
         <f t="shared" si="18"/>
-        <v>3.3564814814814829E-4</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -11121,13 +11519,13 @@
       </c>
       <c r="I64" s="3">
         <f t="shared" si="16"/>
-        <v>4.629629629629645E-5</v>
+        <v>2.2916666666666667E-3</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -11138,29 +11536,31 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="3">
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="3">
         <v>2.4537037037037036E-3</v>
       </c>
-      <c r="V64" s="3">
+      <c r="X64" s="3">
         <v>2.6388888888888885E-3</v>
       </c>
-      <c r="W64" s="3">
+      <c r="Y64" s="3">
         <f t="shared" si="17"/>
         <v>1.8518518518518493E-4</v>
       </c>
-      <c r="X64" s="3">
+      <c r="Z64" s="3">
         <f t="shared" si="20"/>
         <v>1.6203703703703692E-4</v>
       </c>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="3">
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -11168,15 +11568,11 @@
       <c r="C65" s="2">
         <v>31</v>
       </c>
-      <c r="D65" s="3">
-        <v>3.1249999999999997E-3</v>
-      </c>
-      <c r="E65" s="3">
-        <v>3.5532407407407405E-3</v>
-      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="5">
         <f t="shared" si="18"/>
-        <v>4.2824074074074075E-4</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -11186,7 +11582,7 @@
       </c>
       <c r="I65" s="3">
         <f t="shared" si="16"/>
-        <v>2.6620370370370383E-4</v>
+        <v>3.3912037037037036E-3</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -11203,29 +11599,31 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="U65" s="3">
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="3">
         <v>3.4027777777777784E-3</v>
       </c>
-      <c r="V65" s="3">
+      <c r="X65" s="3">
         <v>3.5532407407407405E-3</v>
       </c>
-      <c r="W65" s="3">
+      <c r="Y65" s="3">
         <f t="shared" si="17"/>
         <v>1.5046296296296205E-4</v>
       </c>
-      <c r="X65" s="3">
+      <c r="Z65" s="3">
         <f t="shared" si="20"/>
         <v>1.1574074074074871E-5</v>
       </c>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="3">
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -11233,15 +11631,11 @@
       <c r="C66" s="2">
         <v>12</v>
       </c>
-      <c r="D66" s="3">
-        <v>3.7731481481481483E-3</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3.8541666666666668E-3</v>
-      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="5">
         <f t="shared" si="18"/>
-        <v>8.1018518518518462E-5</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -11251,7 +11645,7 @@
       </c>
       <c r="I66" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.7731481481481483E-3</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -11268,29 +11662,31 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-      <c r="U66" s="3">
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="3">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <f t="shared" si="17"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="3">
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -11298,15 +11694,11 @@
       <c r="C67" s="52">
         <v>22</v>
       </c>
-      <c r="D67" s="3">
-        <v>4.340277777777778E-3</v>
-      </c>
-      <c r="E67" s="3">
-        <v>4.5833333333333334E-3</v>
-      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="5">
         <f t="shared" si="18"/>
-        <v>2.4305555555555539E-4</v>
+        <v>0</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -11316,7 +11708,7 @@
       </c>
       <c r="I67" s="3">
         <f t="shared" si="16"/>
-        <v>1.8518518518518493E-4</v>
+        <v>4.5254629629629629E-3</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -11333,29 +11725,31 @@
       <c r="R67" s="52"/>
       <c r="S67" s="52"/>
       <c r="T67" s="52"/>
-      <c r="U67" s="3">
+      <c r="U67" s="52"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="3">
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="V67" s="3">
+      <c r="X67" s="3">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="W67" s="3">
+      <c r="Y67" s="3">
         <f t="shared" si="17"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="X67" s="3">
+      <c r="Z67" s="3">
         <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="3">
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -11363,15 +11757,11 @@
       <c r="C68" s="2">
         <v>33</v>
       </c>
-      <c r="D68" s="3">
-        <v>5.7060185185185191E-3</v>
-      </c>
-      <c r="E68" s="3">
-        <v>6.3541666666666668E-3</v>
-      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="5">
         <f t="shared" si="18"/>
-        <v>6.481481481481477E-4</v>
+        <v>0</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -11381,13 +11771,13 @@
       </c>
       <c r="I68" s="3">
         <f>H68-D68</f>
-        <v>2.7777777777777696E-4</v>
+        <v>5.9837962962962961E-3</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -11398,29 +11788,31 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-      <c r="U68" s="3">
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="3">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="V68" s="3">
+      <c r="X68" s="3">
         <v>6.3657407407407404E-3</v>
       </c>
-      <c r="W68" s="3">
+      <c r="Y68" s="3">
         <f t="shared" si="17"/>
         <v>3.1249999999999941E-4</v>
       </c>
-      <c r="X68" s="3">
+      <c r="Z68" s="3">
         <f t="shared" si="20"/>
         <v>6.9444444444444892E-5</v>
       </c>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="3">
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
@@ -11428,15 +11820,11 @@
       <c r="C69" s="2">
         <v>30</v>
       </c>
-      <c r="D69" s="3">
-        <v>6.2731481481481484E-3</v>
-      </c>
-      <c r="E69" s="3">
-        <v>7.0023148148148154E-3</v>
-      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="5">
         <f t="shared" si="18"/>
-        <v>7.2916666666666703E-4</v>
+        <v>0</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -11446,7 +11834,7 @@
       </c>
       <c r="I69" s="3">
         <f t="shared" si="16"/>
-        <v>6.9444444444443157E-5</v>
+        <v>6.3425925925925915E-3</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -11463,29 +11851,31 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-      <c r="U69" s="3">
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="3">
         <v>6.9212962962962969E-3</v>
       </c>
-      <c r="V69" s="3">
+      <c r="X69" s="3">
         <v>7.106481481481481E-3</v>
       </c>
-      <c r="W69" s="3">
+      <c r="Y69" s="3">
         <f t="shared" si="17"/>
         <v>1.8518518518518406E-4</v>
       </c>
-      <c r="X69" s="3">
+      <c r="Z69" s="3">
         <f t="shared" si="20"/>
         <v>5.7870370370370541E-4</v>
       </c>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="3">
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -11493,15 +11883,11 @@
       <c r="C70" s="1">
         <v>10</v>
       </c>
-      <c r="D70" s="3">
-        <v>6.5740740740740733E-3</v>
-      </c>
-      <c r="E70" s="3">
-        <v>6.7245370370370367E-3</v>
-      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="5">
         <f t="shared" si="18"/>
-        <v>1.5046296296296335E-4</v>
+        <v>0</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -11511,7 +11897,7 @@
       </c>
       <c r="I70" s="3">
         <f t="shared" si="16"/>
-        <v>2.3148148148148875E-5</v>
+        <v>6.5972222222222222E-3</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -11528,29 +11914,31 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-      <c r="U70" s="3">
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="3">
         <v>6.6782407407407415E-3</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>6.7245370370370367E-3</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <f t="shared" si="17"/>
         <v>4.6296296296295149E-5</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <f t="shared" si="20"/>
         <v>8.1018518518519329E-5</v>
       </c>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="3">
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="3">
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B71" s="19">
         <f>SUM(B62:B70)</f>
@@ -11561,13 +11949,13 @@
       <c r="E71" s="19"/>
       <c r="F71" s="21">
         <f>SUM(F62:F70)</f>
-        <v>3.0092592592592593E-3</v>
+        <v>0</v>
       </c>
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="20">
         <f>SUM(I62:I70)</f>
-        <v>1.0532407407407391E-3</v>
+        <v>3.5752314814814813E-2</v>
       </c>
       <c r="J71" s="19">
         <f>SUM(J62:J70)</f>
@@ -11585,21 +11973,23 @@
       <c r="T71" s="19"/>
       <c r="U71" s="19"/>
       <c r="V71" s="19"/>
-      <c r="W71" s="20">
-        <f>SUM(W62:W70)</f>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="20">
+        <f>SUM(Y62:Y70)</f>
         <v>1.1458333333333299E-3</v>
       </c>
-      <c r="X71" s="20">
-        <f>SUM(X62:X70)</f>
+      <c r="Z71" s="20">
+        <f>SUM(Z62:Z70)</f>
         <v>9.8379629629629967E-4</v>
       </c>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="19"/>
       <c r="AA71" s="19"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="19"/>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -11607,15 +11997,11 @@
       <c r="C72" s="1">
         <v>10</v>
       </c>
-      <c r="D72" s="3">
-        <v>1.9560185185185184E-3</v>
-      </c>
-      <c r="E72" s="3">
-        <v>2.1064814814814813E-3</v>
-      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="5">
         <f t="shared" si="18"/>
-        <v>1.5046296296296292E-4</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -11625,7 +12011,7 @@
       </c>
       <c r="I72" s="3">
         <f t="shared" si="16"/>
-        <v>3.4722222222222446E-5</v>
+        <v>1.9907407407407408E-3</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -11642,29 +12028,31 @@
       <c r="R72" s="52"/>
       <c r="S72" s="52"/>
       <c r="T72" s="52"/>
-      <c r="U72" s="3">
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="3">
         <v>1.9907407407407408E-3</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2.1064814814814813E-3</v>
       </c>
-      <c r="W72" s="3">
-        <f t="shared" ref="W72:W77" si="21" xml:space="preserve"> V72-U72</f>
+      <c r="Y72" s="3">
+        <f t="shared" ref="Y72:Y77" si="21" xml:space="preserve"> X72-W72</f>
         <v>1.1574074074074047E-4</v>
       </c>
-      <c r="X72" s="3">
-        <f>U72-H72</f>
+      <c r="Z72" s="3">
+        <f>W72-H72</f>
         <v>0</v>
       </c>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="3">
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -11672,15 +12060,11 @@
       <c r="C73" s="2">
         <v>32</v>
       </c>
-      <c r="D73" s="3">
-        <v>1.689814814814815E-3</v>
-      </c>
-      <c r="E73" s="3">
-        <v>2.0023148148148148E-3</v>
-      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="5">
         <f t="shared" si="18"/>
-        <v>3.1249999999999984E-4</v>
+        <v>0</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -11690,7 +12074,7 @@
       </c>
       <c r="I73" s="3">
         <f t="shared" si="16"/>
-        <v>2.0833333333333316E-4</v>
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -11707,29 +12091,31 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-      <c r="U73" s="3">
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="3">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="V73" s="3">
+      <c r="X73" s="3">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="W73" s="3">
+      <c r="Y73" s="3">
         <f t="shared" si="21"/>
         <v>9.2592592592592683E-5</v>
       </c>
-      <c r="X73" s="3">
-        <f>U73-H73</f>
+      <c r="Z73" s="3">
+        <f>W73-H73</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="3">
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -11737,15 +12123,11 @@
       <c r="C74" s="2">
         <v>30</v>
       </c>
-      <c r="D74" s="3">
-        <v>2.3842592592592591E-3</v>
-      </c>
-      <c r="E74" s="3">
-        <v>3.0671296296296297E-3</v>
-      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="5">
         <f t="shared" si="18"/>
-        <v>6.8287037037037058E-4</v>
+        <v>0</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -11755,7 +12137,7 @@
       </c>
       <c r="I74" s="3">
         <f t="shared" si="16"/>
-        <v>1.2731481481481491E-4</v>
+        <v>2.5115740740740741E-3</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
@@ -11772,27 +12154,29 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-      <c r="U74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
       <c r="W74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X74" s="3" t="s">
+      <c r="X74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="3">
+      <c r="Y74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -11800,15 +12184,11 @@
       <c r="C75" s="2">
         <v>33</v>
       </c>
-      <c r="D75" s="3">
-        <v>3.2060185185185191E-3</v>
-      </c>
-      <c r="E75" s="3">
-        <v>3.5995370370370369E-3</v>
-      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="5">
         <f t="shared" si="18"/>
-        <v>3.9351851851851787E-4</v>
+        <v>0</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -11818,7 +12198,7 @@
       </c>
       <c r="I75" s="3">
         <f t="shared" si="16"/>
-        <v>9.2592592592592032E-5</v>
+        <v>3.2986111111111111E-3</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -11835,29 +12215,31 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-      <c r="U75" s="3">
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="3">
         <v>3.3101851851851851E-3</v>
       </c>
-      <c r="V75" s="3">
+      <c r="X75" s="3">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="W75" s="3">
+      <c r="Y75" s="3">
         <f t="shared" si="21"/>
         <v>2.8935185185185184E-4</v>
       </c>
-      <c r="X75" s="3">
-        <f t="shared" ref="X75:X80" si="22">U75-H75</f>
+      <c r="Z75" s="3">
+        <f t="shared" ref="Z75:Z80" si="22">W75-H75</f>
         <v>1.1574074074074004E-5</v>
       </c>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="3">
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -11865,15 +12247,11 @@
       <c r="C76" s="1">
         <v>11</v>
       </c>
-      <c r="D76" s="3">
-        <v>3.6805555555555554E-3</v>
-      </c>
-      <c r="E76" s="3">
-        <v>3.9351851851851857E-3</v>
-      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="5">
         <f t="shared" si="18"/>
-        <v>2.5462962962963026E-4</v>
+        <v>0</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -11883,13 +12261,13 @@
       </c>
       <c r="I76" s="3">
         <f t="shared" si="16"/>
-        <v>1.1574074074074438E-5</v>
+        <v>3.6921296296296298E-3</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -11900,29 +12278,31 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-      <c r="U76" s="3">
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="3">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3.9004629629629632E-3</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <f t="shared" si="21"/>
         <v>1.967592592592598E-4</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <f t="shared" si="22"/>
         <v>1.157407407407357E-5</v>
       </c>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="3">
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -11930,15 +12310,11 @@
       <c r="C77" s="52">
         <v>21</v>
       </c>
-      <c r="D77" s="3">
-        <v>4.386574074074074E-3</v>
-      </c>
-      <c r="E77" s="3">
-        <v>4.6759259259259263E-3</v>
-      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="5">
         <f t="shared" si="18"/>
-        <v>2.8935185185185227E-4</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -11948,7 +12324,7 @@
       </c>
       <c r="I77" s="3">
         <f t="shared" si="16"/>
-        <v>1.9675925925925937E-4</v>
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -11965,29 +12341,31 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-      <c r="U77" s="3">
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="3">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="V77" s="3">
+      <c r="X77" s="3">
         <v>4.6759259259259263E-3</v>
       </c>
-      <c r="W77" s="3">
+      <c r="Y77" s="3">
         <f t="shared" si="21"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="X77" s="3">
+      <c r="Z77" s="3">
         <f t="shared" si="22"/>
         <v>5.7870370370370454E-5</v>
       </c>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="3">
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -11995,15 +12373,11 @@
       <c r="C78" s="52">
         <v>22</v>
       </c>
-      <c r="D78" s="3">
-        <v>5.8333333333333336E-3</v>
-      </c>
-      <c r="E78" s="3">
-        <v>6.076388888888889E-3</v>
-      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="5">
         <f t="shared" si="18"/>
-        <v>2.4305555555555539E-4</v>
+        <v>0</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -12013,7 +12387,7 @@
       </c>
       <c r="I78" s="3">
         <f t="shared" si="16"/>
-        <v>2.3148148148148875E-5</v>
+        <v>5.8564814814814825E-3</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -12030,29 +12404,31 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-      <c r="U78" s="3">
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="3">
         <v>5.8564814814814825E-3</v>
       </c>
-      <c r="V78" s="3">
+      <c r="X78" s="3">
         <v>6.076388888888889E-3</v>
       </c>
-      <c r="W78" s="3">
-        <f xml:space="preserve"> V78-U78</f>
+      <c r="Y78" s="3">
+        <f xml:space="preserve"> X78-W78</f>
         <v>2.1990740740740651E-4</v>
       </c>
-      <c r="X78" s="3">
+      <c r="Z78" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="3">
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -12060,15 +12436,11 @@
       <c r="C79" s="2">
         <v>31</v>
       </c>
-      <c r="D79" s="3">
-        <v>5.7986111111111112E-3</v>
-      </c>
-      <c r="E79" s="3">
-        <v>6.2037037037037043E-3</v>
-      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="5">
         <f t="shared" si="18"/>
-        <v>4.0509259259259318E-4</v>
+        <v>0</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -12078,7 +12450,7 @@
       </c>
       <c r="I79" s="3">
         <f t="shared" si="16"/>
-        <v>3.4722222222222186E-4</v>
+        <v>6.145833333333333E-3</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -12095,29 +12467,31 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-      <c r="U79" s="3">
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="3">
         <v>6.1574074074074074E-3</v>
       </c>
-      <c r="V79" s="3">
+      <c r="X79" s="3">
         <v>6.2037037037037043E-3</v>
       </c>
-      <c r="W79" s="3">
-        <f xml:space="preserve"> V79-U79</f>
+      <c r="Y79" s="3">
+        <f xml:space="preserve"> X79-W79</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="X79" s="3">
+      <c r="Z79" s="3">
         <f t="shared" si="22"/>
         <v>1.1574074074074438E-5</v>
       </c>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="3">
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -12125,15 +12499,11 @@
       <c r="C80" s="2">
         <v>12</v>
       </c>
-      <c r="D80" s="3">
-        <v>7.1412037037037043E-3</v>
-      </c>
-      <c r="E80" s="3">
-        <v>7.2453703703703708E-3</v>
-      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="5">
         <f t="shared" si="18"/>
-        <v>1.0416666666666647E-4</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -12143,13 +12513,13 @@
       </c>
       <c r="I80" s="3">
         <f t="shared" si="16"/>
-        <v>2.3148148148147141E-5</v>
+        <v>7.1643518518518514E-3</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -12160,29 +12530,31 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-      <c r="U80" s="3">
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="3">
         <v>7.1990740740740739E-3</v>
       </c>
-      <c r="V80" s="3">
+      <c r="X80" s="3">
         <v>7.2453703703703708E-3</v>
       </c>
-      <c r="W80" s="3">
-        <f xml:space="preserve"> V80-U80</f>
+      <c r="Y80" s="3">
+        <f xml:space="preserve"> X80-W80</f>
         <v>4.6296296296296884E-5</v>
       </c>
-      <c r="X80" s="3">
+      <c r="Z80" s="3">
         <f t="shared" si="22"/>
         <v>3.4722222222222446E-5</v>
       </c>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="3">
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="3">
         <v>7.5578703703703702E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B81" s="19">
         <f>SUM(B72:B80)</f>
@@ -12193,13 +12565,13 @@
       <c r="E81" s="19"/>
       <c r="F81" s="21">
         <f>SUM(F72:F80)</f>
-        <v>2.8356481481481488E-3</v>
+        <v>0</v>
       </c>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="20">
         <f>SUM(I72:I80)</f>
-        <v>1.0648148148148142E-3</v>
+        <v>3.7141203703703704E-2</v>
       </c>
       <c r="J81" s="19">
         <f>SUM(J72:J80)</f>
@@ -12217,19 +12589,21 @@
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
       <c r="V81" s="19"/>
-      <c r="W81" s="20">
-        <f>SUM(W72:W80)</f>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="20">
+        <f>SUM(Y72:Y80)</f>
         <v>1.0416666666666675E-3</v>
       </c>
-      <c r="X81" s="20">
-        <f>SUM(X72:X80)</f>
+      <c r="Z81" s="20">
+        <f>SUM(Z72:Z80)</f>
         <v>1.3888888888888892E-4</v>
       </c>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="19"/>
       <c r="AA81" s="19"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="19"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -12257,10 +12631,12 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
-    </row>
-    <row r="83" spans="1:27" ht="18" x14ac:dyDescent="0.35">
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+    </row>
+    <row r="83" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -12288,8 +12664,10 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -12317,8 +12695,10 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -12346,8 +12726,10 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -12375,8 +12757,10 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -12404,8 +12788,10 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -12433,8 +12819,10 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -12462,8 +12850,10 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
       <c r="AA89" s="15"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="15"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -12491,8 +12881,10 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -12520,8 +12912,10 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -12549,8 +12943,10 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -12578,8 +12974,10 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -12607,8 +13005,10 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -12636,8 +13036,10 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -12665,8 +13067,10 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -12694,8 +13098,10 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -12723,8 +13129,10 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -12752,8 +13160,10 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -12781,8 +13191,10 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -12810,8 +13222,10 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -12839,8 +13253,10 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -12868,6 +13284,8 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12882,53 +13300,53 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B5" s="36"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
